--- a/RoadMap/NewMap_Excel/Map3_1.xlsx
+++ b/RoadMap/NewMap_Excel/Map3_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29BB5F7-0689-47D3-80E8-EBC22E2CBF6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2DA4E-BA00-4A8E-8E7C-F86BC929C13E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,21 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="54">
   <si>
     <t>Pr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Ps</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Se</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>De</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -118,14 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VPs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VPr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>E_7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -139,10 +123,6 @@
   </si>
   <si>
     <t>Js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jr</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -182,19 +162,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VDr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -222,6 +190,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Ps</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,27 +218,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Me</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gr</t>
+    <t>E_7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -292,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,12 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +480,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GJ471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S427" sqref="S427"/>
+    <sheetView tabSelected="1" topLeftCell="A369" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J380" sqref="J380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -873,8 +843,9 @@
     <col min="5" max="6" width="6.796875" customWidth="1"/>
     <col min="7" max="7" width="7.09765625" customWidth="1"/>
     <col min="8" max="8" width="6.69921875" customWidth="1"/>
-    <col min="9" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="6.8984375" customWidth="1"/>
+    <col min="11" max="11" width="7.09765625" customWidth="1"/>
     <col min="12" max="12" width="7.59765625" customWidth="1"/>
     <col min="13" max="14" width="7.3984375" customWidth="1"/>
     <col min="15" max="15" width="7.59765625" customWidth="1"/>
@@ -915,49 +886,49 @@
     <row r="1" spans="1:192" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -989,7 +960,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3324,29 +3295,27 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -4310,25 +4279,14 @@
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="14"/>
       <c r="R19" s="3"/>
@@ -4707,19 +4665,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="M21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="22"/>
+      <c r="O21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="P21" s="14"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -5097,27 +5062,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6" t="s">
-        <v>52</v>
+      <c r="E23" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -5307,7 +5270,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -6863,23 +6826,21 @@
         <v>1</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="19"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="14" t="s">
         <v>0</v>
@@ -8257,12 +8218,11 @@
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="6" t="s">
         <v>0</v>
@@ -8272,12 +8232,11 @@
         <v>1</v>
       </c>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="6" t="s">
+      <c r="L40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P40" s="14"/>
       <c r="R40" s="3"/>
@@ -8516,19 +8475,11 @@
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="20"/>
-      <c r="J48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
       <c r="N48" s="10" t="s">
         <v>1</v>
       </c>
@@ -8740,31 +8691,31 @@
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" t="s">
-        <v>1</v>
-      </c>
+      <c r="B56" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" t="s">
-        <v>0</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4</v>
+      <c r="E56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" t="s">
+        <v>2</v>
       </c>
       <c r="I56" s="20"/>
-      <c r="J56" t="s">
-        <v>4</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1</v>
-      </c>
-      <c r="M56" s="7"/>
+      <c r="K56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="N56" s="7"/>
-      <c r="O56" t="s">
-        <v>0</v>
-      </c>
-      <c r="P56" s="14"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -9028,10 +8979,9 @@
       <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" t="s">
         <v>0</v>
@@ -9041,8 +8991,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="10" t="s">
+      <c r="L65" s="10" t="s">
         <v>0</v>
       </c>
       <c r="N65" s="10"/>
@@ -9152,7 +9101,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
@@ -9234,9 +9183,6 @@
         <v>70</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="D71" t="s">
-        <v>45</v>
-      </c>
       <c r="O71" s="3"/>
       <c r="P71" s="14"/>
       <c r="R71" s="3"/>
@@ -9382,7 +9328,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -9395,7 +9341,7 @@
       <c r="N77" s="7"/>
       <c r="O77" s="4"/>
       <c r="P77" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
@@ -9445,7 +9391,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -9453,6 +9399,9 @@
       <c r="F79" t="s">
         <v>0</v>
       </c>
+      <c r="I79" t="s">
+        <v>51</v>
+      </c>
       <c r="L79" t="s">
         <v>1</v>
       </c>
@@ -9460,7 +9409,7 @@
       <c r="N79" s="7"/>
       <c r="O79" s="4"/>
       <c r="P79" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
@@ -9510,24 +9459,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
         <v>0</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>1</v>
       </c>
-      <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="4"/>
       <c r="P81" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
@@ -9577,24 +9524,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
         <v>0</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>1</v>
       </c>
-      <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="4"/>
       <c r="P83" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
@@ -9644,24 +9589,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" t="s">
+      <c r="F85" t="s">
         <v>0</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>1</v>
       </c>
-      <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="4"/>
       <c r="P85" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
@@ -9737,7 +9680,7 @@
       </c>
       <c r="B88" s="14"/>
       <c r="I88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O88" s="3"/>
       <c r="P88" s="14"/>
@@ -9764,15 +9707,9 @@
         <v>88</v>
       </c>
       <c r="B89" s="14"/>
-      <c r="H89" t="s">
-        <v>42</v>
-      </c>
-      <c r="I89" t="s">
-        <v>42</v>
-      </c>
-      <c r="J89" t="s">
-        <v>42</v>
-      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
       <c r="O89" s="3"/>
       <c r="P89" s="14"/>
       <c r="R89" s="3"/>
@@ -9798,9 +9735,9 @@
         <v>89</v>
       </c>
       <c r="B90" s="14"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
       <c r="O90" s="3"/>
       <c r="P90" s="14"/>
       <c r="R90" s="3"/>
@@ -9826,9 +9763,11 @@
         <v>90</v>
       </c>
       <c r="B91" s="14"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O91" s="3"/>
       <c r="P91" s="14"/>
       <c r="R91" s="3"/>
@@ -9854,9 +9793,9 @@
         <v>91</v>
       </c>
       <c r="B92" s="14"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
       <c r="O92" s="3"/>
       <c r="P92" s="14"/>
       <c r="R92" s="3"/>
@@ -9882,9 +9821,9 @@
         <v>92</v>
       </c>
       <c r="B93" s="14"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
       <c r="O93" s="3"/>
       <c r="P93" s="14"/>
       <c r="R93" s="3"/>
@@ -9910,14 +9849,11 @@
         <v>93</v>
       </c>
       <c r="B94" s="14"/>
-      <c r="H94" t="s">
-        <v>43</v>
-      </c>
-      <c r="I94" t="s">
-        <v>43</v>
-      </c>
-      <c r="J94" t="s">
-        <v>43</v>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" t="s">
+        <v>51</v>
       </c>
       <c r="O94" s="3"/>
       <c r="P94" s="14"/>
@@ -9994,6 +9930,9 @@
         <v>96</v>
       </c>
       <c r="B97" s="14"/>
+      <c r="L97" t="s">
+        <v>51</v>
+      </c>
       <c r="O97" s="3"/>
       <c r="P97" s="14"/>
       <c r="R97" s="3"/>
@@ -10044,9 +9983,6 @@
         <v>98</v>
       </c>
       <c r="B99" s="14"/>
-      <c r="M99" t="s">
-        <v>4</v>
-      </c>
       <c r="O99" s="3"/>
       <c r="P99" s="14"/>
       <c r="R99" s="3"/>
@@ -10072,15 +10008,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="14"/>
-      <c r="L100" t="s">
-        <v>42</v>
-      </c>
+      <c r="L100" s="10"/>
       <c r="M100" t="s">
-        <v>42</v>
-      </c>
-      <c r="N100" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N100" s="10"/>
       <c r="O100" s="3"/>
       <c r="P100" s="14"/>
       <c r="R100" s="3"/>
@@ -10106,9 +10038,9 @@
         <v>100</v>
       </c>
       <c r="B101" s="14"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="N101" s="24"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
       <c r="O101" s="3"/>
       <c r="P101" s="14"/>
       <c r="R101" s="3"/>
@@ -10134,9 +10066,9 @@
         <v>101</v>
       </c>
       <c r="B102" s="14"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="24"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
       <c r="O102" s="3"/>
       <c r="P102" s="14"/>
       <c r="R102" s="3"/>
@@ -10162,9 +10094,11 @@
         <v>102</v>
       </c>
       <c r="B103" s="14"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N103" s="10"/>
       <c r="O103" s="3"/>
       <c r="P103" s="14"/>
       <c r="R103" s="3"/>
@@ -10190,9 +10124,12 @@
         <v>103</v>
       </c>
       <c r="B104" s="14"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="24"/>
+      <c r="K104" t="s">
+        <v>51</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
       <c r="O104" s="3"/>
       <c r="P104" s="14"/>
       <c r="R104" s="3"/>
@@ -10218,15 +10155,12 @@
         <v>104</v>
       </c>
       <c r="B105" s="14"/>
-      <c r="L105" t="s">
-        <v>43</v>
-      </c>
-      <c r="M105" t="s">
-        <v>43</v>
-      </c>
-      <c r="N105" t="s">
-        <v>43</v>
-      </c>
+      <c r="I105" t="s">
+        <v>51</v>
+      </c>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
       <c r="P105" s="14"/>
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
@@ -10276,6 +10210,9 @@
         <v>106</v>
       </c>
       <c r="B107" s="14"/>
+      <c r="G107" t="s">
+        <v>51</v>
+      </c>
       <c r="O107" s="3"/>
       <c r="P107" s="14"/>
       <c r="R107" s="3"/>
@@ -10352,7 +10289,7 @@
       </c>
       <c r="B110" s="14"/>
       <c r="G110" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O110" s="3"/>
       <c r="P110" s="14"/>
@@ -10379,15 +10316,9 @@
         <v>110</v>
       </c>
       <c r="B111" s="14"/>
-      <c r="F111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H111" t="s">
-        <v>42</v>
-      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
       <c r="O111" s="3"/>
       <c r="P111" s="14"/>
       <c r="R111" s="3"/>
@@ -10413,9 +10344,9 @@
         <v>111</v>
       </c>
       <c r="B112" s="14"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="24"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
       <c r="O112" s="3"/>
       <c r="P112" s="14"/>
       <c r="R112" s="3"/>
@@ -10441,9 +10372,12 @@
         <v>112</v>
       </c>
       <c r="B113" s="14"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" t="s">
+        <v>51</v>
+      </c>
       <c r="O113" s="3"/>
       <c r="P113" s="14"/>
       <c r="R113" s="3"/>
@@ -10469,9 +10403,9 @@
         <v>113</v>
       </c>
       <c r="B114" s="14"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
       <c r="O114" s="3"/>
       <c r="P114" s="14"/>
       <c r="R114" s="3"/>
@@ -10497,9 +10431,9 @@
         <v>114</v>
       </c>
       <c r="B115" s="14"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
       <c r="O115" s="3"/>
       <c r="P115" s="14"/>
       <c r="R115" s="3"/>
@@ -10525,15 +10459,9 @@
         <v>115</v>
       </c>
       <c r="B116" s="14"/>
-      <c r="F116" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" t="s">
-        <v>43</v>
-      </c>
-      <c r="H116" t="s">
-        <v>43</v>
-      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
       <c r="O116" s="3"/>
       <c r="P116" s="14"/>
       <c r="R116" s="3"/>
@@ -10584,7 +10512,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -10599,7 +10527,7 @@
       <c r="N118" s="7"/>
       <c r="O118" s="4"/>
       <c r="P118" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
@@ -10775,15 +10703,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="14"/>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>1</v>
       </c>
-      <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" t="s">
+      <c r="K125" t="s">
         <v>0</v>
       </c>
       <c r="O125" s="3"/>
@@ -10837,7 +10763,7 @@
       </c>
       <c r="B127" s="14"/>
       <c r="M127" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O127" s="3"/>
       <c r="P127" s="14"/>
@@ -10988,26 +10914,24 @@
       <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" t="s">
-        <v>1</v>
-      </c>
+      <c r="B133" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-      <c r="K133" t="s">
-        <v>1</v>
-      </c>
-      <c r="L133" s="7"/>
+      <c r="F133" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
-      <c r="O133" t="s">
-        <v>0</v>
-      </c>
-      <c r="P133" s="14"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
@@ -11081,12 +11005,8 @@
         <v>135</v>
       </c>
       <c r="B136" s="14"/>
-      <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="L136" t="s">
-        <v>20</v>
-      </c>
+      <c r="F136" s="10"/>
+      <c r="L136" s="10"/>
       <c r="O136" s="3"/>
       <c r="P136" s="14"/>
       <c r="R136" s="3"/>
@@ -11112,8 +11032,15 @@
         <v>136</v>
       </c>
       <c r="B137" s="14"/>
-      <c r="F137" s="20"/>
-      <c r="L137" s="20"/>
+      <c r="F137" s="10"/>
+      <c r="H137" t="s">
+        <v>38</v>
+      </c>
+      <c r="I137" s="23"/>
+      <c r="J137" t="s">
+        <v>39</v>
+      </c>
+      <c r="L137" s="10"/>
       <c r="O137" s="3"/>
       <c r="P137" s="14"/>
       <c r="R137" s="3"/>
@@ -11139,15 +11066,8 @@
         <v>137</v>
       </c>
       <c r="B138" s="14"/>
-      <c r="F138" s="20"/>
-      <c r="H138" t="s">
-        <v>46</v>
-      </c>
-      <c r="I138" s="23"/>
-      <c r="J138" t="s">
-        <v>47</v>
-      </c>
-      <c r="L138" s="20"/>
+      <c r="F138" s="10"/>
+      <c r="L138" s="10"/>
       <c r="P138" s="14"/>
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
@@ -11172,11 +11092,11 @@
         <v>138</v>
       </c>
       <c r="B139" s="14"/>
-      <c r="F139" s="20"/>
+      <c r="F139" s="10"/>
       <c r="I139" t="s">
-        <v>4</v>
-      </c>
-      <c r="L139" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="L139" s="10"/>
       <c r="O139" s="3"/>
       <c r="P139" s="14"/>
       <c r="R139" s="3"/>
@@ -11202,11 +11122,11 @@
         <v>139</v>
       </c>
       <c r="B140" s="14"/>
-      <c r="F140" s="20"/>
+      <c r="F140" s="10"/>
       <c r="I140" t="s">
-        <v>4</v>
-      </c>
-      <c r="L140" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="L140" s="10"/>
       <c r="O140" s="3"/>
       <c r="P140" s="14"/>
       <c r="R140" s="3"/>
@@ -11232,11 +11152,11 @@
         <v>140</v>
       </c>
       <c r="B141" s="14"/>
-      <c r="F141" s="20"/>
+      <c r="F141" s="10"/>
       <c r="I141" t="s">
-        <v>4</v>
-      </c>
-      <c r="L141" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="L141" s="10"/>
       <c r="O141" s="3"/>
       <c r="P141" s="14"/>
       <c r="R141" s="3"/>
@@ -11262,8 +11182,8 @@
         <v>141</v>
       </c>
       <c r="B142" s="14"/>
-      <c r="F142" s="20"/>
-      <c r="L142" s="20"/>
+      <c r="F142" s="10"/>
+      <c r="L142" s="10"/>
       <c r="O142" s="3"/>
       <c r="P142" s="14"/>
       <c r="R142" s="3"/>
@@ -11289,8 +11209,8 @@
         <v>142</v>
       </c>
       <c r="B143" s="14"/>
-      <c r="F143" s="20"/>
-      <c r="L143" s="20"/>
+      <c r="F143" s="10"/>
+      <c r="L143" s="10"/>
       <c r="O143" s="3"/>
       <c r="P143" s="14"/>
       <c r="R143" s="3"/>
@@ -11316,8 +11236,8 @@
         <v>143</v>
       </c>
       <c r="B144" s="14"/>
-      <c r="F144" s="20"/>
-      <c r="L144" s="20"/>
+      <c r="F144" s="10"/>
+      <c r="L144" s="10"/>
       <c r="O144" s="3"/>
       <c r="P144" s="14"/>
       <c r="R144" s="3"/>
@@ -11343,8 +11263,8 @@
         <v>144</v>
       </c>
       <c r="B145" s="14"/>
-      <c r="F145" s="20"/>
-      <c r="L145" s="20"/>
+      <c r="F145" s="10"/>
+      <c r="L145" s="10"/>
       <c r="O145" s="3"/>
       <c r="P145" s="14"/>
       <c r="R145" s="3"/>
@@ -11370,8 +11290,8 @@
         <v>145</v>
       </c>
       <c r="B146" s="14"/>
-      <c r="F146" s="20"/>
-      <c r="L146" s="20"/>
+      <c r="F146" s="10"/>
+      <c r="L146" s="10"/>
       <c r="O146" s="3"/>
       <c r="P146" s="14"/>
       <c r="R146" s="3"/>
@@ -11397,8 +11317,8 @@
         <v>146</v>
       </c>
       <c r="B147" s="14"/>
-      <c r="F147" s="20"/>
-      <c r="L147" s="20"/>
+      <c r="F147" s="10"/>
+      <c r="L147" s="10"/>
       <c r="P147" s="14"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
@@ -11424,27 +11344,27 @@
       </c>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D148" s="23"/>
       <c r="E148" t="s">
-        <v>33</v>
-      </c>
-      <c r="F148" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="F148" s="10"/>
       <c r="H148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I148" s="23"/>
       <c r="J148" t="s">
-        <v>35</v>
-      </c>
-      <c r="L148" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="L148" s="10"/>
       <c r="M148" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N148" s="23"/>
       <c r="O148" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P148" s="14"/>
       <c r="R148" s="3"/>
@@ -11470,12 +11390,8 @@
         <v>148</v>
       </c>
       <c r="B149" s="14"/>
-      <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="L149" t="s">
-        <v>21</v>
-      </c>
+      <c r="F149" s="10"/>
+      <c r="L149" s="10"/>
       <c r="O149" s="3"/>
       <c r="P149" s="14"/>
       <c r="R149" s="3"/>
@@ -11501,7 +11417,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
@@ -11517,7 +11433,7 @@
       <c r="N150" s="7"/>
       <c r="O150" s="4"/>
       <c r="P150" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
@@ -11541,14 +11457,20 @@
       <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="14"/>
-      <c r="C151" t="s">
-        <v>20</v>
-      </c>
-      <c r="O151" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P151" s="14"/>
+      <c r="B151" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" t="s">
+        <v>50</v>
+      </c>
+      <c r="N151" t="s">
+        <v>49</v>
+      </c>
+      <c r="O151" s="4"/>
+      <c r="P151" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
@@ -11571,10 +11493,20 @@
       <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="20"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="14"/>
+      <c r="B152" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" t="s">
+        <v>50</v>
+      </c>
+      <c r="N152" t="s">
+        <v>49</v>
+      </c>
+      <c r="O152" s="4"/>
+      <c r="P152" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
@@ -11597,10 +11529,20 @@
       <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="20"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="14"/>
+      <c r="B153" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" t="s">
+        <v>50</v>
+      </c>
+      <c r="N153" t="s">
+        <v>49</v>
+      </c>
+      <c r="O153" s="4"/>
+      <c r="P153" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
@@ -11623,10 +11565,20 @@
       <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="20"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="14"/>
+      <c r="B154" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" t="s">
+        <v>50</v>
+      </c>
+      <c r="N154" t="s">
+        <v>49</v>
+      </c>
+      <c r="O154" s="4"/>
+      <c r="P154" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
@@ -11649,10 +11601,20 @@
       <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="14"/>
-      <c r="C155" s="20"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="14"/>
+      <c r="B155" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" t="s">
+        <v>50</v>
+      </c>
+      <c r="N155" t="s">
+        <v>49</v>
+      </c>
+      <c r="O155" s="4"/>
+      <c r="P155" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
@@ -11675,10 +11637,23 @@
       <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="14"/>
-      <c r="C156" s="20"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="14"/>
+      <c r="B156" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" t="s">
+        <v>50</v>
+      </c>
+      <c r="I156" t="s">
+        <v>51</v>
+      </c>
+      <c r="N156" t="s">
+        <v>49</v>
+      </c>
+      <c r="O156" s="4"/>
+      <c r="P156" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
@@ -11701,28 +11676,24 @@
       <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="14"/>
-      <c r="C157" s="20"/>
+      <c r="B157" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="7"/>
       <c r="D157" t="s">
-        <v>42</v>
-      </c>
-      <c r="E157" t="s">
-        <v>42</v>
-      </c>
-      <c r="F157" t="s">
-        <v>42</v>
-      </c>
-      <c r="L157" t="s">
-        <v>42</v>
-      </c>
-      <c r="M157" t="s">
-        <v>42</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
       <c r="N157" t="s">
-        <v>42</v>
-      </c>
-      <c r="O157" s="19"/>
-      <c r="P157" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="O157" s="4"/>
+      <c r="P157" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
@@ -11745,16 +11716,24 @@
       <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="14"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="24"/>
-      <c r="N158" s="24"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="14"/>
+      <c r="B158" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" t="s">
+        <v>50</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" t="s">
+        <v>49</v>
+      </c>
+      <c r="O158" s="4"/>
+      <c r="P158" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
@@ -11777,16 +11756,24 @@
       <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="14"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="L159" s="24"/>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="14"/>
+      <c r="B159" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" t="s">
+        <v>50</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" t="s">
+        <v>49</v>
+      </c>
+      <c r="O159" s="4"/>
+      <c r="P159" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
@@ -11809,28 +11796,24 @@
       <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="14"/>
-      <c r="C160" s="20"/>
+      <c r="B160" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7"/>
       <c r="D160" t="s">
-        <v>43</v>
-      </c>
-      <c r="E160" t="s">
-        <v>43</v>
-      </c>
-      <c r="F160" t="s">
-        <v>43</v>
-      </c>
-      <c r="L160" t="s">
-        <v>43</v>
-      </c>
-      <c r="M160" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
       <c r="N160" t="s">
-        <v>43</v>
-      </c>
-      <c r="O160" s="19"/>
-      <c r="P160" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="O160" s="4"/>
+      <c r="P160" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
@@ -11853,10 +11836,20 @@
       <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="14"/>
-      <c r="C161" s="20"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="14"/>
+      <c r="B161" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" t="s">
+        <v>50</v>
+      </c>
+      <c r="N161" t="s">
+        <v>49</v>
+      </c>
+      <c r="O161" s="4"/>
+      <c r="P161" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
@@ -11879,24 +11872,27 @@
       <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="14"/>
-      <c r="C162" s="20"/>
-      <c r="D162" t="s">
+      <c r="B162" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" t="s">
         <v>0</v>
       </c>
+      <c r="I162" t="s">
+        <v>51</v>
+      </c>
       <c r="L162" t="s">
         <v>1</v>
       </c>
       <c r="M162" s="7"/>
-      <c r="N162" t="s">
+      <c r="N162" s="7"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O162" s="19"/>
-      <c r="P162" s="14"/>
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
@@ -11919,10 +11915,20 @@
       <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="14"/>
-      <c r="C163" s="20"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="14"/>
+      <c r="B163" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" t="s">
+        <v>50</v>
+      </c>
+      <c r="N163" t="s">
+        <v>49</v>
+      </c>
+      <c r="O163" s="4"/>
+      <c r="P163" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
@@ -11945,10 +11951,20 @@
       <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="14"/>
-      <c r="C164" s="20"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="14"/>
+      <c r="B164" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="7"/>
+      <c r="D164" t="s">
+        <v>50</v>
+      </c>
+      <c r="N164" t="s">
+        <v>49</v>
+      </c>
+      <c r="O164" s="4"/>
+      <c r="P164" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
@@ -11971,10 +11987,26 @@
       <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="14"/>
-      <c r="C165" s="20"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="14"/>
+      <c r="B165" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" t="s">
+        <v>50</v>
+      </c>
+      <c r="J165" t="s">
+        <v>51</v>
+      </c>
+      <c r="N165" t="s">
+        <v>49</v>
+      </c>
+      <c r="O165" s="4"/>
+      <c r="P165" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
@@ -11997,25 +12029,29 @@
       <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="14"/>
-      <c r="C166" s="20"/>
-      <c r="G166" t="s">
-        <v>42</v>
-      </c>
-      <c r="H166" t="s">
-        <v>42</v>
-      </c>
-      <c r="I166" t="s">
-        <v>42</v>
-      </c>
-      <c r="J166" t="s">
-        <v>42</v>
-      </c>
-      <c r="K166" t="s">
-        <v>42</v>
-      </c>
-      <c r="O166" s="19"/>
-      <c r="P166" s="14"/>
+      <c r="B166" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" t="s">
+        <v>50</v>
+      </c>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" t="s">
+        <v>49</v>
+      </c>
+      <c r="O166" s="4"/>
+      <c r="P166" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
@@ -12038,15 +12074,29 @@
       <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="14"/>
-      <c r="C167" s="20"/>
-      <c r="G167" s="24"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="24"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="14"/>
+      <c r="B167" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="10"/>
+      <c r="N167" t="s">
+        <v>49</v>
+      </c>
+      <c r="O167" s="4"/>
+      <c r="P167" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
@@ -12069,15 +12119,31 @@
       <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="14"/>
-      <c r="C168" s="20"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="14"/>
+      <c r="B168" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" t="s">
+        <v>50</v>
+      </c>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" t="s">
+        <v>49</v>
+      </c>
+      <c r="O168" s="4"/>
+      <c r="P168" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
@@ -12100,25 +12166,29 @@
       <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="14"/>
-      <c r="C169" s="20"/>
-      <c r="G169" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" t="s">
-        <v>43</v>
-      </c>
-      <c r="I169" t="s">
-        <v>43</v>
-      </c>
-      <c r="J169" t="s">
-        <v>43</v>
-      </c>
-      <c r="K169" t="s">
-        <v>43</v>
-      </c>
-      <c r="O169" s="19"/>
-      <c r="P169" s="14"/>
+      <c r="B169" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="7"/>
+      <c r="D169" t="s">
+        <v>50</v>
+      </c>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" t="s">
+        <v>49</v>
+      </c>
+      <c r="O169" s="4"/>
+      <c r="P169" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
@@ -12141,19 +12211,29 @@
       <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="14"/>
-      <c r="C170" s="20"/>
-      <c r="G170" t="s">
+      <c r="B170" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" t="s">
+      <c r="C170" s="7"/>
+      <c r="D170" t="s">
+        <v>50</v>
+      </c>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" t="s">
+        <v>49</v>
+      </c>
+      <c r="O170" s="4"/>
+      <c r="P170" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O170" s="19"/>
-      <c r="P170" s="14"/>
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
@@ -12176,10 +12256,31 @@
       <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="14"/>
-      <c r="C171" s="20"/>
-      <c r="O171" s="19"/>
-      <c r="P171" s="14"/>
+      <c r="B171" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" t="s">
+        <v>50</v>
+      </c>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" t="s">
+        <v>49</v>
+      </c>
+      <c r="O171" s="4"/>
+      <c r="P171" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
@@ -12202,10 +12303,29 @@
       <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="14"/>
-      <c r="C172" s="20"/>
-      <c r="O172" s="19"/>
-      <c r="P172" s="14"/>
+      <c r="B172" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" t="s">
+        <v>50</v>
+      </c>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="10"/>
+      <c r="N172" t="s">
+        <v>49</v>
+      </c>
+      <c r="O172" s="4"/>
+      <c r="P172" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
@@ -12228,10 +12348,29 @@
       <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="14"/>
-      <c r="C173" s="20"/>
-      <c r="O173" s="19"/>
-      <c r="P173" s="14"/>
+      <c r="B173" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" t="s">
+        <v>50</v>
+      </c>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="10"/>
+      <c r="N173" t="s">
+        <v>49</v>
+      </c>
+      <c r="O173" s="4"/>
+      <c r="P173" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
@@ -12254,10 +12393,29 @@
       <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="14"/>
-      <c r="C174" s="20"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="14"/>
+      <c r="B174" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" t="s">
+        <v>50</v>
+      </c>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="10"/>
+      <c r="N174" t="s">
+        <v>49</v>
+      </c>
+      <c r="O174" s="4"/>
+      <c r="P174" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
@@ -12280,17 +12438,29 @@
       <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="14"/>
-      <c r="C175" s="20"/>
-      <c r="K175" t="s">
+      <c r="B175" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L175" s="7"/>
-      <c r="M175" t="s">
+      <c r="C175" s="7"/>
+      <c r="D175" t="s">
+        <v>50</v>
+      </c>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" t="s">
+        <v>49</v>
+      </c>
+      <c r="O175" s="4"/>
+      <c r="P175" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O175" s="19"/>
-      <c r="P175" s="14"/>
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
@@ -12313,10 +12483,33 @@
       <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="14"/>
-      <c r="C176" s="20"/>
-      <c r="O176" s="19"/>
-      <c r="P176" s="14"/>
+      <c r="B176" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" t="s">
+        <v>50</v>
+      </c>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K176" s="23"/>
+      <c r="L176" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M176" s="10"/>
+      <c r="N176" t="s">
+        <v>49</v>
+      </c>
+      <c r="O176" s="4"/>
+      <c r="P176" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
@@ -12339,10 +12532,29 @@
       <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="14"/>
-      <c r="C177" s="20"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="14"/>
+      <c r="B177" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" t="s">
+        <v>50</v>
+      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" t="s">
+        <v>49</v>
+      </c>
+      <c r="O177" s="4"/>
+      <c r="P177" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
@@ -12365,10 +12577,25 @@
       <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="14"/>
-      <c r="C178" s="20"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="14"/>
+      <c r="B178" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
@@ -12391,10 +12618,29 @@
       <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="14"/>
-      <c r="C179" s="20"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="14"/>
+      <c r="B179" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" t="s">
+        <v>50</v>
+      </c>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" t="s">
+        <v>49</v>
+      </c>
+      <c r="O179" s="4"/>
+      <c r="P179" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
@@ -12417,10 +12663,29 @@
       <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="14"/>
-      <c r="C180" s="20"/>
-      <c r="O180" s="19"/>
-      <c r="P180" s="14"/>
+      <c r="B180" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" t="s">
+        <v>50</v>
+      </c>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" t="s">
+        <v>49</v>
+      </c>
+      <c r="O180" s="4"/>
+      <c r="P180" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
@@ -12443,24 +12708,29 @@
       <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="14"/>
-      <c r="C181" s="20"/>
+      <c r="B181" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="7"/>
       <c r="D181" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" s="7"/>
-      <c r="F181" t="s">
+        <v>50</v>
+      </c>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" t="s">
+        <v>49</v>
+      </c>
+      <c r="O181" s="4"/>
+      <c r="P181" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L181" t="s">
-        <v>1</v>
-      </c>
-      <c r="M181" s="7"/>
-      <c r="N181" t="s">
-        <v>0</v>
-      </c>
-      <c r="O181" s="19"/>
-      <c r="P181" s="14"/>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
@@ -12483,10 +12753,29 @@
       <c r="A182" s="5">
         <v>181</v>
       </c>
-      <c r="B182" s="14"/>
-      <c r="C182" s="20"/>
-      <c r="O182" s="19"/>
-      <c r="P182" s="14"/>
+      <c r="B182" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="7"/>
+      <c r="D182" t="s">
+        <v>50</v>
+      </c>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" t="s">
+        <v>49</v>
+      </c>
+      <c r="O182" s="4"/>
+      <c r="P182" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
@@ -12509,10 +12798,29 @@
       <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="14"/>
-      <c r="C183" s="20"/>
-      <c r="O183" s="19"/>
-      <c r="P183" s="14"/>
+      <c r="B183" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="7"/>
+      <c r="D183" t="s">
+        <v>50</v>
+      </c>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" t="s">
+        <v>49</v>
+      </c>
+      <c r="O183" s="4"/>
+      <c r="P183" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
@@ -12535,12 +12843,31 @@
       <c r="A184" s="5">
         <v>183</v>
       </c>
-      <c r="B184" s="14"/>
-      <c r="C184" s="20"/>
-      <c r="D184" s="10"/>
-      <c r="N184" s="10"/>
-      <c r="O184" s="19"/>
-      <c r="P184" s="14"/>
+      <c r="B184" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" t="s">
+        <v>50</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" t="s">
+        <v>49</v>
+      </c>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
@@ -12563,14 +12890,29 @@
       <c r="A185" s="5">
         <v>184</v>
       </c>
-      <c r="B185" s="14"/>
-      <c r="C185" s="20"/>
-      <c r="D185" s="10"/>
+      <c r="B185" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" t="s">
+        <v>50</v>
+      </c>
       <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="10"/>
       <c r="M185" s="10"/>
-      <c r="N185" s="10"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="14"/>
+      <c r="N185" t="s">
+        <v>49</v>
+      </c>
+      <c r="O185" s="4"/>
+      <c r="P185" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
@@ -12593,16 +12935,29 @@
       <c r="A186" s="5">
         <v>185</v>
       </c>
-      <c r="B186" s="14"/>
-      <c r="C186" s="20"/>
-      <c r="D186" s="10"/>
+      <c r="B186" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" t="s">
+        <v>50</v>
+      </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
       <c r="L186" s="10"/>
       <c r="M186" s="10"/>
-      <c r="N186" s="10"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="14"/>
+      <c r="N186" t="s">
+        <v>49</v>
+      </c>
+      <c r="O186" s="4"/>
+      <c r="P186" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
@@ -12625,16 +12980,29 @@
       <c r="A187" s="5">
         <v>186</v>
       </c>
-      <c r="B187" s="14"/>
-      <c r="C187" s="20"/>
+      <c r="B187" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" t="s">
+        <v>50</v>
+      </c>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
       <c r="K187" s="10"/>
       <c r="L187" s="10"/>
       <c r="M187" s="10"/>
-      <c r="O187" s="19"/>
-      <c r="P187" s="14"/>
+      <c r="N187" t="s">
+        <v>49</v>
+      </c>
+      <c r="O187" s="4"/>
+      <c r="P187" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
@@ -12657,18 +13025,31 @@
       <c r="A188" s="5">
         <v>187</v>
       </c>
-      <c r="B188" s="14"/>
-      <c r="C188" s="20"/>
+      <c r="B188" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" t="s">
+        <v>50</v>
+      </c>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
-      <c r="I188" t="s">
-        <v>56</v>
-      </c>
-      <c r="K188" s="10"/>
-      <c r="L188" s="10"/>
-      <c r="O188" s="19"/>
-      <c r="P188" s="14"/>
+      <c r="H188" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" t="s">
+        <v>49</v>
+      </c>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
@@ -12691,12 +13072,29 @@
       <c r="A189" s="5">
         <v>188</v>
       </c>
-      <c r="B189" s="14"/>
-      <c r="C189" s="20"/>
+      <c r="B189" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" t="s">
+        <v>50</v>
+      </c>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
       <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
       <c r="K189" s="10"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="14"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" t="s">
+        <v>49</v>
+      </c>
+      <c r="O189" s="4"/>
+      <c r="P189" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
@@ -12719,23 +13117,29 @@
       <c r="A190" s="5">
         <v>189</v>
       </c>
-      <c r="B190" s="14"/>
-      <c r="C190" s="20"/>
-      <c r="D190" s="10"/>
+      <c r="B190" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" t="s">
+        <v>50</v>
+      </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
-      <c r="J190" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
       <c r="N190" t="s">
         <v>49</v>
       </c>
-      <c r="O190" s="19"/>
-      <c r="P190" s="14"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
@@ -12758,20 +13162,29 @@
       <c r="A191" s="5">
         <v>190</v>
       </c>
-      <c r="B191" s="14"/>
-      <c r="C191" s="20"/>
-      <c r="D191" s="10"/>
+      <c r="B191" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" t="s">
+        <v>50</v>
+      </c>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
-      <c r="J191" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O191" s="19"/>
-      <c r="P191" s="14"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" t="s">
+        <v>49</v>
+      </c>
+      <c r="O191" s="4"/>
+      <c r="P191" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
@@ -12794,23 +13207,31 @@
       <c r="A192" s="5">
         <v>191</v>
       </c>
-      <c r="B192" s="14"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
+      <c r="B192" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" t="s">
+        <v>50</v>
+      </c>
       <c r="G192" s="10"/>
-      <c r="J192" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M192" t="s">
-        <v>4</v>
-      </c>
-      <c r="O192" s="19"/>
-      <c r="P192" s="14"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" t="s">
+        <v>49</v>
+      </c>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
@@ -12833,23 +13254,29 @@
       <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="14"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="10"/>
+      <c r="B193" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" t="s">
+        <v>50</v>
+      </c>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
-      <c r="J193" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K193" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M193" t="s">
-        <v>4</v>
-      </c>
-      <c r="O193" s="19"/>
-      <c r="P193" s="14"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" t="s">
+        <v>49</v>
+      </c>
+      <c r="O193" s="4"/>
+      <c r="P193" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
@@ -12872,15 +13299,29 @@
       <c r="A194" s="5">
         <v>193</v>
       </c>
-      <c r="B194" s="14"/>
-      <c r="C194" s="20"/>
+      <c r="B194" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" t="s">
+        <v>50</v>
+      </c>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
       <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
       <c r="K194" s="10"/>
-      <c r="M194" t="s">
-        <v>57</v>
-      </c>
-      <c r="O194" s="19"/>
-      <c r="P194" s="14"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" t="s">
+        <v>49</v>
+      </c>
+      <c r="O194" s="4"/>
+      <c r="P194" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
@@ -12903,12 +13344,22 @@
       <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="14"/>
-      <c r="C195" s="20"/>
+      <c r="B195" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" t="s">
+        <v>50</v>
+      </c>
       <c r="G195" s="10"/>
       <c r="K195" s="10"/>
-      <c r="O195" s="19"/>
-      <c r="P195" s="14"/>
+      <c r="N195" t="s">
+        <v>49</v>
+      </c>
+      <c r="O195" s="4"/>
+      <c r="P195" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
@@ -12931,12 +13382,22 @@
       <c r="A196" s="5">
         <v>195</v>
       </c>
-      <c r="B196" s="14"/>
-      <c r="C196" s="20"/>
+      <c r="B196" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="7"/>
+      <c r="D196" t="s">
+        <v>50</v>
+      </c>
       <c r="G196" s="10"/>
       <c r="K196" s="10"/>
-      <c r="O196" s="19"/>
-      <c r="P196" s="14"/>
+      <c r="N196" t="s">
+        <v>49</v>
+      </c>
+      <c r="O196" s="4"/>
+      <c r="P196" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
@@ -12959,12 +13420,22 @@
       <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="14"/>
-      <c r="C197" s="20"/>
+      <c r="B197" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" t="s">
+        <v>50</v>
+      </c>
       <c r="G197" s="10"/>
       <c r="K197" s="10"/>
-      <c r="O197" s="19"/>
-      <c r="P197" s="14"/>
+      <c r="N197" t="s">
+        <v>49</v>
+      </c>
+      <c r="O197" s="4"/>
+      <c r="P197" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
@@ -12987,29 +13458,35 @@
       <c r="A198" s="5">
         <v>197</v>
       </c>
-      <c r="B198" s="14"/>
-      <c r="C198" s="20"/>
+      <c r="B198" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="7"/>
       <c r="D198" t="s">
+        <v>50</v>
+      </c>
+      <c r="F198" t="s">
+        <v>27</v>
+      </c>
+      <c r="G198" s="23"/>
+      <c r="H198" t="s">
         <v>31</v>
       </c>
-      <c r="E198" s="23"/>
-      <c r="F198" t="s">
-        <v>36</v>
-      </c>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
       <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="10"/>
+      <c r="J198" t="s">
+        <v>27</v>
+      </c>
+      <c r="K198" s="23"/>
       <c r="L198" t="s">
-        <v>31</v>
-      </c>
-      <c r="M198" s="23"/>
+        <v>26</v>
+      </c>
       <c r="N198" t="s">
-        <v>30</v>
-      </c>
-      <c r="O198" s="19"/>
-      <c r="P198" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="O198" s="4"/>
+      <c r="P198" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
@@ -13032,16 +13509,22 @@
       <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="14"/>
-      <c r="C199" t="s">
-        <v>0</v>
+      <c r="B199" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" t="s">
+        <v>50</v>
       </c>
       <c r="G199" s="10"/>
       <c r="K199" s="10"/>
-      <c r="O199" s="3" t="s">
+      <c r="N199" t="s">
+        <v>49</v>
+      </c>
+      <c r="O199" s="4"/>
+      <c r="P199" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="P199" s="14"/>
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
@@ -13065,7 +13548,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
@@ -13081,7 +13564,7 @@
       <c r="N200" s="7"/>
       <c r="O200" s="4"/>
       <c r="P200" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
@@ -13105,9 +13588,20 @@
       <c r="A201" s="5">
         <v>200</v>
       </c>
-      <c r="B201" s="14"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="14"/>
+      <c r="B201" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" t="s">
+        <v>50</v>
+      </c>
+      <c r="N201" t="s">
+        <v>49</v>
+      </c>
+      <c r="O201" s="4"/>
+      <c r="P201" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R201" s="3"/>
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
@@ -13130,9 +13624,20 @@
       <c r="A202" s="5">
         <v>201</v>
       </c>
-      <c r="B202" s="14"/>
-      <c r="O202" s="3"/>
-      <c r="P202" s="14"/>
+      <c r="B202" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" t="s">
+        <v>50</v>
+      </c>
+      <c r="N202" t="s">
+        <v>49</v>
+      </c>
+      <c r="O202" s="4"/>
+      <c r="P202" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R202" s="3"/>
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
@@ -13155,9 +13660,20 @@
       <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="14"/>
-      <c r="O203" s="3"/>
-      <c r="P203" s="14"/>
+      <c r="B203" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" t="s">
+        <v>50</v>
+      </c>
+      <c r="N203" t="s">
+        <v>49</v>
+      </c>
+      <c r="O203" s="4"/>
+      <c r="P203" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R203" s="3"/>
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
@@ -13180,8 +13696,20 @@
       <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="9"/>
-      <c r="P204" s="9"/>
+      <c r="B204" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" t="s">
+        <v>50</v>
+      </c>
+      <c r="N204" t="s">
+        <v>49</v>
+      </c>
+      <c r="O204" s="4"/>
+      <c r="P204" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R204" s="3"/>
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
@@ -13204,8 +13732,23 @@
       <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="9"/>
-      <c r="P205" s="9"/>
+      <c r="B205" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" t="s">
+        <v>50</v>
+      </c>
+      <c r="I205" t="s">
+        <v>51</v>
+      </c>
+      <c r="N205" t="s">
+        <v>49</v>
+      </c>
+      <c r="O205" s="4"/>
+      <c r="P205" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R205" s="3"/>
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
@@ -13228,15 +13771,27 @@
       <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="14"/>
+      <c r="B206" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" t="s">
+        <v>50</v>
+      </c>
       <c r="H206" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I206" s="23"/>
       <c r="J206" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P206" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="N206" t="s">
+        <v>49</v>
+      </c>
+      <c r="O206" s="4"/>
+      <c r="P206" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
@@ -13259,9 +13814,20 @@
       <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="14"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="14"/>
+      <c r="B207" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" t="s">
+        <v>50</v>
+      </c>
+      <c r="N207" t="s">
+        <v>49</v>
+      </c>
+      <c r="O207" s="4"/>
+      <c r="P207" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
@@ -13285,7 +13851,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -13301,7 +13867,7 @@
       <c r="N208" s="7"/>
       <c r="O208" s="4"/>
       <c r="P208" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
@@ -13413,7 +13979,7 @@
       </c>
       <c r="B212" s="14"/>
       <c r="I212" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O212" s="3"/>
       <c r="P212" s="14"/>
@@ -13566,7 +14132,7 @@
       </c>
       <c r="B218" s="14"/>
       <c r="I218" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O218" s="3"/>
       <c r="P218" s="14"/>
@@ -13644,7 +14210,7 @@
       </c>
       <c r="B221" s="14"/>
       <c r="J221" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O221" s="3"/>
       <c r="P221" s="14"/>
@@ -13772,7 +14338,7 @@
       </c>
       <c r="B226" s="14"/>
       <c r="H226" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O226" s="3"/>
       <c r="P226" s="14"/>
@@ -13874,27 +14440,25 @@
         <v>229</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" t="s">
+      <c r="F230" t="s">
         <v>0</v>
       </c>
-      <c r="K230" t="s">
+      <c r="L230" t="s">
         <v>1</v>
       </c>
-      <c r="L230" s="7"/>
       <c r="M230" s="7"/>
       <c r="N230" s="7"/>
       <c r="O230" s="4"/>
       <c r="P230" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q230" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R230" s="3"/>
       <c r="S230" s="3"/>
@@ -13919,7 +14483,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O231" s="3"/>
       <c r="P231" s="14"/>
@@ -13997,7 +14561,7 @@
       </c>
       <c r="B234" s="14"/>
       <c r="I234" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O234" s="3"/>
       <c r="P234" s="14"/>
@@ -14174,10 +14738,9 @@
         <v>240</v>
       </c>
       <c r="B241" s="14"/>
-      <c r="G241" t="s">
+      <c r="H241" t="s">
         <v>1</v>
       </c>
-      <c r="H241" s="7"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
       <c r="K241" t="s">
@@ -14383,15 +14946,14 @@
         <v>248</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
       <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" t="s">
+      <c r="H249" t="s">
         <v>0</v>
       </c>
       <c r="J249" s="10"/>
@@ -14421,7 +14983,7 @@
       </c>
       <c r="B250" s="14"/>
       <c r="M250" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O250" s="3"/>
       <c r="P250" s="14"/>
@@ -14497,7 +15059,9 @@
       <c r="A253" s="16">
         <v>252</v>
       </c>
-      <c r="B253" s="14"/>
+      <c r="B253" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="O253" s="3"/>
       <c r="P253" s="14"/>
       <c r="R253" s="3"/>
@@ -14574,16 +15138,15 @@
       </c>
       <c r="B256" s="14"/>
       <c r="H256" s="10"/>
-      <c r="J256" t="s">
+      <c r="K256" t="s">
         <v>1</v>
       </c>
-      <c r="K256" s="7"/>
       <c r="L256" s="7"/>
       <c r="M256" s="7"/>
       <c r="N256" s="7"/>
       <c r="O256" s="4"/>
       <c r="P256" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R256" s="3"/>
       <c r="S256" s="3"/>
@@ -14634,7 +15197,7 @@
       </c>
       <c r="B258" s="14"/>
       <c r="G258" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O258" s="3"/>
       <c r="P258" s="14"/>
@@ -14736,6 +15299,9 @@
         <v>261</v>
       </c>
       <c r="B262" s="14"/>
+      <c r="K262" t="s">
+        <v>51</v>
+      </c>
       <c r="O262" s="3"/>
       <c r="P262" s="14"/>
       <c r="R262" s="3"/>
@@ -14795,15 +15361,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="14"/>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
         <v>1</v>
       </c>
-      <c r="G264" s="7"/>
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
-      <c r="J264" s="7"/>
-      <c r="K264" t="s">
+      <c r="J264" t="s">
         <v>0</v>
+      </c>
+      <c r="L264" t="s">
+        <v>51</v>
       </c>
       <c r="O264" s="3"/>
       <c r="P264" s="14"/>
@@ -14830,6 +15397,14 @@
         <v>264</v>
       </c>
       <c r="B265" s="14"/>
+      <c r="G265" t="s">
+        <v>1</v>
+      </c>
+      <c r="H265" s="7"/>
+      <c r="I265" s="7"/>
+      <c r="J265" t="s">
+        <v>0</v>
+      </c>
       <c r="O265" s="3"/>
       <c r="P265" s="14"/>
       <c r="R265" s="3"/>
@@ -14855,6 +15430,17 @@
         <v>265</v>
       </c>
       <c r="B266" s="14"/>
+      <c r="G266" t="s">
+        <v>1</v>
+      </c>
+      <c r="H266" s="7"/>
+      <c r="I266" s="7"/>
+      <c r="J266" t="s">
+        <v>0</v>
+      </c>
+      <c r="L266" t="s">
+        <v>51</v>
+      </c>
       <c r="O266" s="3"/>
       <c r="P266" s="14"/>
       <c r="R266" s="3"/>
@@ -14880,6 +15466,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="14"/>
+      <c r="G267" t="s">
+        <v>1</v>
+      </c>
+      <c r="H267" s="7"/>
+      <c r="I267" s="7"/>
+      <c r="J267" t="s">
+        <v>0</v>
+      </c>
       <c r="O267" s="3"/>
       <c r="P267" s="14"/>
       <c r="R267" s="3"/>
@@ -14905,6 +15499,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="14"/>
+      <c r="G268" t="s">
+        <v>1</v>
+      </c>
+      <c r="H268" s="7"/>
+      <c r="I268" s="7"/>
+      <c r="J268" t="s">
+        <v>0</v>
+      </c>
       <c r="O268" s="3"/>
       <c r="P268" s="14"/>
       <c r="R268" s="3"/>
@@ -14930,8 +15532,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="14"/>
-      <c r="I269" t="s">
-        <v>20</v>
+      <c r="G269" t="s">
+        <v>1</v>
+      </c>
+      <c r="H269" s="7"/>
+      <c r="I269" s="7"/>
+      <c r="J269" t="s">
+        <v>0</v>
       </c>
       <c r="O269" s="3"/>
       <c r="P269" s="14"/>
@@ -14958,7 +15565,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="14"/>
-      <c r="I270" s="20"/>
+      <c r="G270" t="s">
+        <v>1</v>
+      </c>
+      <c r="H270" s="7"/>
+      <c r="I270" s="7"/>
+      <c r="J270" t="s">
+        <v>0</v>
+      </c>
       <c r="O270" s="3"/>
       <c r="P270" s="14"/>
       <c r="R270" s="3"/>
@@ -14984,7 +15598,20 @@
         <v>270</v>
       </c>
       <c r="B271" s="14"/>
-      <c r="I271" s="20"/>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1</v>
+      </c>
+      <c r="H271" s="7"/>
+      <c r="I271" s="7"/>
+      <c r="J271" t="s">
+        <v>0</v>
+      </c>
+      <c r="M271" t="s">
+        <v>53</v>
+      </c>
       <c r="O271" s="3"/>
       <c r="P271" s="14"/>
       <c r="R271" s="3"/>
@@ -15010,10 +15637,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="14"/>
-      <c r="I272" s="20"/>
-      <c r="M272" t="s">
-        <v>2</v>
-      </c>
+      <c r="I272" s="10"/>
       <c r="O272" s="3"/>
       <c r="P272" s="14"/>
       <c r="R272" s="3"/>
@@ -15039,7 +15663,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="14"/>
-      <c r="I273" s="20"/>
+      <c r="I273" s="10"/>
       <c r="O273" s="3"/>
       <c r="P273" s="14"/>
       <c r="R273" s="3"/>
@@ -15065,7 +15689,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="14"/>
-      <c r="I274" s="20"/>
+      <c r="I274" s="10"/>
       <c r="O274" s="3"/>
       <c r="P274" s="14"/>
       <c r="R274" s="3"/>
@@ -15091,7 +15715,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="14"/>
-      <c r="I275" s="20"/>
+      <c r="I275" s="10"/>
       <c r="O275" s="3"/>
       <c r="P275" s="14"/>
       <c r="R275" s="3"/>
@@ -15117,7 +15741,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="14"/>
-      <c r="I276" s="20"/>
+      <c r="I276" s="10"/>
       <c r="O276" s="3"/>
       <c r="P276" s="14"/>
       <c r="R276" s="3"/>
@@ -15143,9 +15767,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="14"/>
-      <c r="I277" t="s">
-        <v>21</v>
-      </c>
+      <c r="I277" s="10"/>
       <c r="O277" s="3"/>
       <c r="P277" s="14"/>
       <c r="R277" s="3"/>
@@ -15245,9 +15867,7 @@
       <c r="A281" s="16">
         <v>280</v>
       </c>
-      <c r="B281" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="B281" s="14"/>
       <c r="O281" s="3"/>
       <c r="P281" s="14"/>
       <c r="R281" s="3"/>
@@ -15422,7 +16042,9 @@
       <c r="A288" s="16">
         <v>287</v>
       </c>
-      <c r="B288" s="14"/>
+      <c r="B288" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="O288" s="3"/>
       <c r="P288" s="14"/>
       <c r="R288" s="3"/>
@@ -15449,21 +16071,21 @@
       </c>
       <c r="B289" s="14"/>
       <c r="D289" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F289" s="10"/>
       <c r="G289" s="10"/>
       <c r="H289" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I289" s="23"/>
       <c r="J289" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K289" s="10"/>
       <c r="L289" s="10"/>
       <c r="N289" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P289" s="14"/>
       <c r="R289" s="3"/>
@@ -15514,18 +16136,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="14"/>
-      <c r="E291" t="s">
-        <v>50</v>
-      </c>
-      <c r="F291" s="7"/>
+      <c r="F291" t="s">
+        <v>40</v>
+      </c>
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
       <c r="K291" s="7"/>
-      <c r="L291" s="7"/>
-      <c r="M291" t="s">
-        <v>51</v>
+      <c r="L291" t="s">
+        <v>41</v>
       </c>
       <c r="O291" s="3"/>
       <c r="P291" s="14"/>
@@ -15904,6 +16524,8 @@
         <v>302</v>
       </c>
       <c r="B303" s="14"/>
+      <c r="K303" s="10"/>
+      <c r="L303" s="10"/>
       <c r="O303" s="3"/>
       <c r="P303" s="14"/>
       <c r="R303" s="3"/>
@@ -15936,18 +16558,17 @@
         <v>303</v>
       </c>
       <c r="B304" s="14"/>
-      <c r="F304" t="s">
-        <v>20</v>
-      </c>
-      <c r="G304" t="s">
-        <v>20</v>
-      </c>
-      <c r="K304" t="s">
-        <v>20</v>
-      </c>
-      <c r="L304" t="s">
-        <v>20</v>
-      </c>
+      <c r="F304" s="10"/>
+      <c r="G304" s="10"/>
+      <c r="H304" t="s">
+        <v>49</v>
+      </c>
+      <c r="I304" s="7"/>
+      <c r="J304" t="s">
+        <v>50</v>
+      </c>
+      <c r="K304" s="10"/>
+      <c r="L304" s="10"/>
       <c r="O304" s="3"/>
       <c r="P304" s="14"/>
       <c r="R304" s="3"/>
@@ -15980,10 +16601,17 @@
         <v>304</v>
       </c>
       <c r="B305" s="14"/>
-      <c r="F305" s="20"/>
-      <c r="G305" s="20"/>
-      <c r="K305" s="20"/>
-      <c r="L305" s="20"/>
+      <c r="F305" s="10"/>
+      <c r="G305" s="10"/>
+      <c r="H305" t="s">
+        <v>49</v>
+      </c>
+      <c r="I305" s="7"/>
+      <c r="J305" t="s">
+        <v>50</v>
+      </c>
+      <c r="K305" s="10"/>
+      <c r="L305" s="10"/>
       <c r="O305" s="3"/>
       <c r="P305" s="14"/>
       <c r="R305" s="3"/>
@@ -16016,10 +16644,17 @@
         <v>305</v>
       </c>
       <c r="B306" s="14"/>
-      <c r="F306" s="20"/>
-      <c r="G306" s="20"/>
-      <c r="K306" s="20"/>
-      <c r="L306" s="20"/>
+      <c r="F306" s="10"/>
+      <c r="G306" s="10"/>
+      <c r="H306" t="s">
+        <v>49</v>
+      </c>
+      <c r="I306" s="7"/>
+      <c r="J306" t="s">
+        <v>50</v>
+      </c>
+      <c r="K306" s="10"/>
+      <c r="L306" s="10"/>
       <c r="O306" s="3"/>
       <c r="P306" s="14"/>
       <c r="R306" s="3"/>
@@ -16052,18 +16687,22 @@
         <v>306</v>
       </c>
       <c r="B307" s="14"/>
-      <c r="D307" t="s">
-        <v>22</v>
-      </c>
-      <c r="F307" s="20"/>
-      <c r="G307" s="20"/>
-      <c r="I307" t="s">
-        <v>22</v>
-      </c>
-      <c r="K307" s="20"/>
-      <c r="L307" s="20"/>
-      <c r="N307" t="s">
-        <v>22</v>
+      <c r="E307" t="s">
+        <v>20</v>
+      </c>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
+      <c r="H307" t="s">
+        <v>49</v>
+      </c>
+      <c r="I307" s="7"/>
+      <c r="J307" t="s">
+        <v>50</v>
+      </c>
+      <c r="K307" s="10"/>
+      <c r="L307" s="10"/>
+      <c r="M307" t="s">
+        <v>20</v>
       </c>
       <c r="O307" s="3"/>
       <c r="P307" s="14"/>
@@ -16097,10 +16736,16 @@
         <v>307</v>
       </c>
       <c r="B308" s="14"/>
-      <c r="F308" s="20"/>
-      <c r="G308" s="20"/>
-      <c r="K308" s="20"/>
-      <c r="L308" s="20"/>
+      <c r="F308" s="10"/>
+      <c r="G308" t="s">
+        <v>49</v>
+      </c>
+      <c r="H308" s="7"/>
+      <c r="I308" t="s">
+        <v>50</v>
+      </c>
+      <c r="K308" s="10"/>
+      <c r="L308" s="10"/>
       <c r="O308" s="3"/>
       <c r="P308" s="14"/>
       <c r="R308" s="3"/>
@@ -16133,10 +16778,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="14"/>
-      <c r="F309" s="20"/>
-      <c r="G309" s="20"/>
-      <c r="K309" s="20"/>
-      <c r="L309" s="20"/>
+      <c r="F309" s="10"/>
+      <c r="G309" t="s">
+        <v>49</v>
+      </c>
+      <c r="H309" s="7"/>
+      <c r="I309" t="s">
+        <v>50</v>
+      </c>
+      <c r="K309" s="10"/>
+      <c r="L309" s="10"/>
       <c r="O309" s="3"/>
       <c r="P309" s="14"/>
       <c r="R309" s="3"/>
@@ -16169,10 +16820,16 @@
         <v>309</v>
       </c>
       <c r="B310" s="14"/>
-      <c r="F310" s="20"/>
-      <c r="G310" s="20"/>
-      <c r="K310" s="20"/>
-      <c r="L310" s="20"/>
+      <c r="F310" s="10"/>
+      <c r="G310" t="s">
+        <v>49</v>
+      </c>
+      <c r="H310" s="7"/>
+      <c r="I310" t="s">
+        <v>50</v>
+      </c>
+      <c r="K310" s="10"/>
+      <c r="L310" s="10"/>
       <c r="O310" s="3"/>
       <c r="P310" s="14"/>
       <c r="R310" s="3"/>
@@ -16205,10 +16862,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="14"/>
-      <c r="F311" s="20"/>
-      <c r="G311" s="20"/>
-      <c r="K311" s="20"/>
-      <c r="L311" s="20"/>
+      <c r="F311" s="10"/>
+      <c r="G311" t="s">
+        <v>49</v>
+      </c>
+      <c r="H311" s="7"/>
+      <c r="I311" t="s">
+        <v>50</v>
+      </c>
+      <c r="K311" s="10"/>
+      <c r="L311" s="10"/>
       <c r="O311" s="3"/>
       <c r="P311" s="14"/>
       <c r="R311" s="3"/>
@@ -16241,10 +16904,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="14"/>
-      <c r="F312" s="20"/>
-      <c r="G312" s="20"/>
-      <c r="K312" s="20"/>
-      <c r="L312" s="20"/>
+      <c r="F312" s="10"/>
+      <c r="G312" t="s">
+        <v>49</v>
+      </c>
+      <c r="H312" s="7"/>
+      <c r="I312" t="s">
+        <v>50</v>
+      </c>
+      <c r="K312" s="10"/>
+      <c r="L312" s="10"/>
       <c r="O312" s="3"/>
       <c r="P312" s="14"/>
       <c r="R312" s="3"/>
@@ -16277,10 +16946,16 @@
         <v>312</v>
       </c>
       <c r="B313" s="14"/>
-      <c r="F313" s="20"/>
-      <c r="G313" s="20"/>
-      <c r="K313" s="20"/>
-      <c r="L313" s="20"/>
+      <c r="F313" s="10"/>
+      <c r="G313" t="s">
+        <v>49</v>
+      </c>
+      <c r="H313" s="7"/>
+      <c r="I313" t="s">
+        <v>50</v>
+      </c>
+      <c r="K313" s="10"/>
+      <c r="L313" s="10"/>
       <c r="O313" s="3"/>
       <c r="P313" s="14"/>
       <c r="R313" s="3"/>
@@ -16313,18 +16988,20 @@
         <v>313</v>
       </c>
       <c r="B314" s="14"/>
-      <c r="C314" t="s">
-        <v>22</v>
-      </c>
-      <c r="F314" s="20"/>
-      <c r="G314" s="20"/>
-      <c r="J314" t="s">
-        <v>22</v>
-      </c>
-      <c r="K314" s="20"/>
-      <c r="L314" s="20"/>
-      <c r="O314" t="s">
-        <v>22</v>
+      <c r="D314" t="s">
+        <v>53</v>
+      </c>
+      <c r="F314" s="10"/>
+      <c r="G314" t="s">
+        <v>49</v>
+      </c>
+      <c r="H314" s="7"/>
+      <c r="I314" t="s">
+        <v>50</v>
+      </c>
+      <c r="K314" s="10"/>
+      <c r="L314" t="s">
+        <v>20</v>
       </c>
       <c r="P314" s="14"/>
       <c r="R314" s="3"/>
@@ -16357,10 +17034,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="14"/>
-      <c r="F315" s="20"/>
-      <c r="G315" s="20"/>
-      <c r="K315" s="20"/>
-      <c r="L315" s="20"/>
+      <c r="F315" s="10"/>
+      <c r="G315" t="s">
+        <v>49</v>
+      </c>
+      <c r="H315" s="7"/>
+      <c r="I315" t="s">
+        <v>50</v>
+      </c>
+      <c r="K315" s="10"/>
+      <c r="L315" s="10"/>
       <c r="O315" s="3"/>
       <c r="P315" s="14"/>
       <c r="R315" s="3"/>
@@ -16393,10 +17076,17 @@
         <v>315</v>
       </c>
       <c r="B316" s="14"/>
-      <c r="F316" s="20"/>
-      <c r="G316" s="20"/>
-      <c r="K316" s="20"/>
-      <c r="L316" s="20"/>
+      <c r="F316" s="10"/>
+      <c r="G316" s="10"/>
+      <c r="H316" t="s">
+        <v>49</v>
+      </c>
+      <c r="I316" s="7"/>
+      <c r="J316" t="s">
+        <v>50</v>
+      </c>
+      <c r="K316" s="10"/>
+      <c r="L316" s="10"/>
       <c r="O316" s="3"/>
       <c r="P316" s="14"/>
       <c r="R316" s="3"/>
@@ -16429,10 +17119,17 @@
         <v>316</v>
       </c>
       <c r="B317" s="14"/>
-      <c r="F317" s="20"/>
-      <c r="G317" s="20"/>
-      <c r="K317" s="20"/>
-      <c r="L317" s="20"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
+      <c r="H317" t="s">
+        <v>49</v>
+      </c>
+      <c r="I317" s="7"/>
+      <c r="J317" t="s">
+        <v>50</v>
+      </c>
+      <c r="K317" s="10"/>
+      <c r="L317" s="10"/>
       <c r="O317" s="3"/>
       <c r="P317" s="14"/>
       <c r="R317" s="3"/>
@@ -16465,10 +17162,17 @@
         <v>317</v>
       </c>
       <c r="B318" s="14"/>
-      <c r="F318" s="20"/>
-      <c r="G318" s="20"/>
-      <c r="K318" s="20"/>
-      <c r="L318" s="20"/>
+      <c r="F318" s="10"/>
+      <c r="G318" s="10"/>
+      <c r="H318" t="s">
+        <v>49</v>
+      </c>
+      <c r="I318" s="7"/>
+      <c r="J318" t="s">
+        <v>50</v>
+      </c>
+      <c r="K318" s="10"/>
+      <c r="L318" s="10"/>
       <c r="O318" s="3"/>
       <c r="P318" s="14"/>
       <c r="R318" s="3"/>
@@ -16500,13 +17204,18 @@
       <c r="A319" s="16">
         <v>318</v>
       </c>
-      <c r="B319" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F319" s="20"/>
-      <c r="G319" s="20"/>
-      <c r="K319" s="20"/>
-      <c r="L319" s="20"/>
+      <c r="B319" s="14"/>
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+      <c r="H319" t="s">
+        <v>49</v>
+      </c>
+      <c r="I319" s="7"/>
+      <c r="J319" t="s">
+        <v>50</v>
+      </c>
+      <c r="K319" s="10"/>
+      <c r="L319" s="10"/>
       <c r="O319" s="3"/>
       <c r="P319" s="14"/>
       <c r="R319" s="3"/>
@@ -16539,10 +17248,17 @@
         <v>319</v>
       </c>
       <c r="B320" s="14"/>
-      <c r="F320" s="20"/>
-      <c r="G320" s="20"/>
-      <c r="K320" s="20"/>
-      <c r="L320" s="20"/>
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
+      <c r="H320" t="s">
+        <v>49</v>
+      </c>
+      <c r="I320" s="7"/>
+      <c r="J320" t="s">
+        <v>50</v>
+      </c>
+      <c r="K320" s="10"/>
+      <c r="L320" s="10"/>
       <c r="O320" s="3"/>
       <c r="P320" s="14"/>
       <c r="R320" s="3"/>
@@ -16575,10 +17291,17 @@
         <v>320</v>
       </c>
       <c r="B321" s="14"/>
-      <c r="F321" s="20"/>
-      <c r="G321" s="20"/>
-      <c r="K321" s="20"/>
-      <c r="L321" s="20"/>
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
+      <c r="H321" t="s">
+        <v>49</v>
+      </c>
+      <c r="I321" s="7"/>
+      <c r="J321" t="s">
+        <v>50</v>
+      </c>
+      <c r="K321" s="10"/>
+      <c r="L321" s="10"/>
       <c r="O321" s="3"/>
       <c r="P321" s="14"/>
       <c r="R321" s="3"/>
@@ -16611,10 +17334,17 @@
         <v>321</v>
       </c>
       <c r="B322" s="14"/>
-      <c r="F322" s="20"/>
-      <c r="G322" s="20"/>
-      <c r="K322" s="20"/>
-      <c r="L322" s="20"/>
+      <c r="F322" s="10"/>
+      <c r="G322" s="10"/>
+      <c r="H322" t="s">
+        <v>49</v>
+      </c>
+      <c r="I322" s="7"/>
+      <c r="J322" t="s">
+        <v>50</v>
+      </c>
+      <c r="K322" s="10"/>
+      <c r="L322" s="10"/>
       <c r="O322" s="3"/>
       <c r="P322" s="14"/>
       <c r="R322" s="3"/>
@@ -16647,10 +17377,22 @@
         <v>322</v>
       </c>
       <c r="B323" s="14"/>
-      <c r="F323" s="20"/>
-      <c r="G323" s="20"/>
-      <c r="K323" s="20"/>
-      <c r="L323" s="20"/>
+      <c r="E323" t="s">
+        <v>20</v>
+      </c>
+      <c r="F323" s="10"/>
+      <c r="G323" s="10"/>
+      <c r="I323" t="s">
+        <v>49</v>
+      </c>
+      <c r="J323" s="7"/>
+      <c r="K323" t="s">
+        <v>50</v>
+      </c>
+      <c r="L323" s="10"/>
+      <c r="M323" t="s">
+        <v>20</v>
+      </c>
       <c r="O323" s="3"/>
       <c r="P323" s="14"/>
       <c r="R323" s="3"/>
@@ -16683,10 +17425,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="14"/>
-      <c r="F324" s="20"/>
-      <c r="G324" s="20"/>
-      <c r="K324" s="20"/>
-      <c r="L324" s="20"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10"/>
+      <c r="I324" t="s">
+        <v>49</v>
+      </c>
+      <c r="J324" s="7"/>
+      <c r="K324" t="s">
+        <v>50</v>
+      </c>
+      <c r="L324" s="10"/>
       <c r="O324" s="3"/>
       <c r="P324" s="14"/>
       <c r="R324" s="3"/>
@@ -16719,10 +17467,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="14"/>
-      <c r="F325" s="20"/>
-      <c r="G325" s="20"/>
-      <c r="K325" s="20"/>
-      <c r="L325" s="20"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10"/>
+      <c r="I325" t="s">
+        <v>49</v>
+      </c>
+      <c r="J325" s="7"/>
+      <c r="K325" t="s">
+        <v>50</v>
+      </c>
+      <c r="L325" s="10"/>
       <c r="O325" s="3"/>
       <c r="P325" s="14"/>
       <c r="R325" s="3"/>
@@ -16755,10 +17509,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="14"/>
-      <c r="F326" s="20"/>
-      <c r="G326" s="20"/>
-      <c r="K326" s="20"/>
-      <c r="L326" s="20"/>
+      <c r="F326" s="10"/>
+      <c r="G326" s="10"/>
+      <c r="I326" t="s">
+        <v>49</v>
+      </c>
+      <c r="J326" s="7"/>
+      <c r="K326" t="s">
+        <v>50</v>
+      </c>
+      <c r="L326" s="10"/>
       <c r="O326" s="3"/>
       <c r="P326" s="14"/>
       <c r="R326" s="3"/>
@@ -16791,10 +17551,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="14"/>
-      <c r="F327" s="20"/>
-      <c r="G327" s="20"/>
-      <c r="K327" s="20"/>
-      <c r="L327" s="20"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
+      <c r="I327" t="s">
+        <v>49</v>
+      </c>
+      <c r="J327" s="7"/>
+      <c r="K327" t="s">
+        <v>50</v>
+      </c>
+      <c r="L327" s="10"/>
       <c r="O327" s="3"/>
       <c r="P327" s="14"/>
       <c r="R327" s="3"/>
@@ -16827,10 +17593,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="14"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="20"/>
-      <c r="K328" s="20"/>
-      <c r="L328" s="20"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10"/>
+      <c r="I328" t="s">
+        <v>49</v>
+      </c>
+      <c r="J328" s="7"/>
+      <c r="K328" t="s">
+        <v>50</v>
+      </c>
+      <c r="L328" s="10"/>
       <c r="O328" s="3"/>
       <c r="P328" s="14"/>
       <c r="R328" s="3"/>
@@ -16863,10 +17635,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="14"/>
-      <c r="F329" s="20"/>
-      <c r="G329" s="20"/>
-      <c r="K329" s="20"/>
-      <c r="L329" s="20"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10"/>
+      <c r="I329" t="s">
+        <v>49</v>
+      </c>
+      <c r="J329" s="7"/>
+      <c r="K329" t="s">
+        <v>50</v>
+      </c>
+      <c r="L329" s="10"/>
       <c r="P329" s="14"/>
       <c r="R329" s="3"/>
       <c r="S329" s="3"/>
@@ -16897,13 +17675,18 @@
       <c r="A330" s="16">
         <v>329</v>
       </c>
-      <c r="B330" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F330" s="20"/>
-      <c r="G330" s="20"/>
-      <c r="K330" s="20"/>
-      <c r="L330" s="20"/>
+      <c r="B330" s="14"/>
+      <c r="F330" s="10"/>
+      <c r="G330" s="10"/>
+      <c r="H330" t="s">
+        <v>49</v>
+      </c>
+      <c r="I330" s="7"/>
+      <c r="J330" t="s">
+        <v>50</v>
+      </c>
+      <c r="K330" s="10"/>
+      <c r="L330" s="10"/>
       <c r="O330" s="3"/>
       <c r="P330" s="14"/>
       <c r="R330" s="3"/>
@@ -16936,10 +17719,22 @@
         <v>330</v>
       </c>
       <c r="B331" s="14"/>
-      <c r="F331" s="20"/>
-      <c r="G331" s="20"/>
-      <c r="K331" s="20"/>
-      <c r="L331" s="20"/>
+      <c r="F331" t="s">
+        <v>20</v>
+      </c>
+      <c r="G331" s="10"/>
+      <c r="H331" t="s">
+        <v>49</v>
+      </c>
+      <c r="I331" s="7"/>
+      <c r="J331" t="s">
+        <v>50</v>
+      </c>
+      <c r="K331" s="10"/>
+      <c r="L331" s="10"/>
+      <c r="N331" t="s">
+        <v>20</v>
+      </c>
       <c r="O331" s="3"/>
       <c r="P331" s="14"/>
       <c r="R331" s="3"/>
@@ -16972,10 +17767,17 @@
         <v>331</v>
       </c>
       <c r="B332" s="14"/>
-      <c r="F332" s="20"/>
-      <c r="G332" s="20"/>
-      <c r="K332" s="20"/>
-      <c r="L332" s="20"/>
+      <c r="F332" s="10"/>
+      <c r="G332" s="10"/>
+      <c r="H332" t="s">
+        <v>49</v>
+      </c>
+      <c r="I332" s="7"/>
+      <c r="J332" t="s">
+        <v>50</v>
+      </c>
+      <c r="K332" s="10"/>
+      <c r="L332" s="10"/>
       <c r="O332" s="3"/>
       <c r="P332" s="14"/>
       <c r="R332" s="3"/>
@@ -17008,18 +17810,17 @@
         <v>332</v>
       </c>
       <c r="B333" s="14"/>
-      <c r="F333" t="s">
-        <v>21</v>
-      </c>
-      <c r="G333" t="s">
-        <v>21</v>
-      </c>
-      <c r="K333" t="s">
-        <v>21</v>
-      </c>
-      <c r="L333" t="s">
-        <v>21</v>
-      </c>
+      <c r="F333" s="10"/>
+      <c r="G333" s="10"/>
+      <c r="H333" t="s">
+        <v>49</v>
+      </c>
+      <c r="I333" s="7"/>
+      <c r="J333" t="s">
+        <v>50</v>
+      </c>
+      <c r="K333" s="10"/>
+      <c r="L333" s="10"/>
       <c r="O333" s="3"/>
       <c r="P333" s="14"/>
       <c r="R333" s="3"/>
@@ -17116,27 +17917,27 @@
         <v>335</v>
       </c>
       <c r="B336" s="14"/>
-      <c r="C336" t="s">
-        <v>1</v>
-      </c>
-      <c r="D336" s="7"/>
-      <c r="E336" t="s">
-        <v>0</v>
-      </c>
-      <c r="H336" t="s">
-        <v>1</v>
-      </c>
-      <c r="I336" s="7"/>
-      <c r="J336" t="s">
-        <v>0</v>
-      </c>
-      <c r="M336" t="s">
-        <v>1</v>
-      </c>
-      <c r="N336" s="7"/>
-      <c r="O336" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C336" s="10"/>
+      <c r="D336" s="10"/>
+      <c r="E336" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F336" s="23"/>
+      <c r="G336" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H336" s="10"/>
+      <c r="I336" s="10"/>
+      <c r="J336" s="10"/>
+      <c r="K336" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L336" s="23"/>
+      <c r="M336" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N336" s="10"/>
+      <c r="O336" s="6"/>
       <c r="P336" s="14"/>
       <c r="R336" s="3"/>
       <c r="S336" s="3"/>
@@ -17168,7 +17969,19 @@
         <v>336</v>
       </c>
       <c r="B337" s="14"/>
-      <c r="O337" s="3"/>
+      <c r="C337" s="10"/>
+      <c r="D337" s="10"/>
+      <c r="E337" s="10"/>
+      <c r="F337" s="10"/>
+      <c r="G337" s="10"/>
+      <c r="H337" s="10"/>
+      <c r="I337" s="10"/>
+      <c r="J337" s="10"/>
+      <c r="K337" s="10"/>
+      <c r="L337" s="10"/>
+      <c r="M337" s="10"/>
+      <c r="N337" s="10"/>
+      <c r="O337" s="6"/>
       <c r="P337" s="14"/>
       <c r="R337" s="3"/>
       <c r="S337" s="3"/>
@@ -17200,7 +18013,29 @@
         <v>337</v>
       </c>
       <c r="B338" s="14"/>
-      <c r="O338" s="3"/>
+      <c r="C338" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G338" s="10"/>
+      <c r="H338" s="10"/>
+      <c r="I338" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J338" s="10"/>
+      <c r="K338" s="10"/>
+      <c r="L338" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M338" s="7"/>
+      <c r="N338" s="7"/>
+      <c r="O338" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="P338" s="14"/>
       <c r="R338" s="3"/>
       <c r="S338" s="3"/>
@@ -17232,13 +18067,21 @@
         <v>338</v>
       </c>
       <c r="B339" s="14"/>
-      <c r="F339" t="s">
-        <v>22</v>
-      </c>
-      <c r="L339" t="s">
-        <v>22</v>
-      </c>
-      <c r="O339" s="3"/>
+      <c r="C339" s="10"/>
+      <c r="D339" s="10"/>
+      <c r="E339" s="10"/>
+      <c r="F339" s="10"/>
+      <c r="G339" s="10"/>
+      <c r="H339" s="10"/>
+      <c r="I339" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J339" s="10"/>
+      <c r="K339" s="10"/>
+      <c r="L339" s="10"/>
+      <c r="M339" s="10"/>
+      <c r="N339" s="10"/>
+      <c r="O339" s="6"/>
       <c r="P339" s="14"/>
       <c r="R339" s="3"/>
       <c r="S339" s="3"/>
@@ -17366,18 +18209,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="14"/>
-      <c r="F343" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G343" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K343" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L343" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="F343" s="10"/>
+      <c r="G343" s="10"/>
+      <c r="H343" s="10"/>
+      <c r="I343" s="10"/>
+      <c r="J343" s="10"/>
+      <c r="K343" s="10"/>
+      <c r="L343" s="10"/>
       <c r="O343" s="3"/>
       <c r="P343" s="14"/>
       <c r="R343" s="3"/>
@@ -17442,6 +18280,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="14"/>
+      <c r="H345" t="s">
+        <v>47</v>
+      </c>
+      <c r="I345" s="23"/>
+      <c r="J345" t="s">
+        <v>48</v>
+      </c>
       <c r="O345" s="3"/>
       <c r="P345" s="14"/>
       <c r="R345" s="3"/>
@@ -17475,7 +18320,9 @@
       </c>
       <c r="B346" s="14"/>
       <c r="O346" s="3"/>
-      <c r="P346" s="14"/>
+      <c r="P346" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="R346" s="3"/>
       <c r="S346" s="3"/>
       <c r="T346" s="3"/>
@@ -17632,7 +18479,7 @@
       </c>
       <c r="B352" s="14"/>
       <c r="I352" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P352" s="14"/>
       <c r="R352" s="3"/>
@@ -17708,6 +18555,9 @@
         <v>354</v>
       </c>
       <c r="B355" s="14"/>
+      <c r="G355" t="s">
+        <v>51</v>
+      </c>
       <c r="O355" s="3"/>
       <c r="P355" s="14"/>
       <c r="R355" s="3"/>
@@ -17783,6 +18633,9 @@
         <v>357</v>
       </c>
       <c r="B358" s="14"/>
+      <c r="J358" t="s">
+        <v>51</v>
+      </c>
       <c r="O358" s="3"/>
       <c r="P358" s="14"/>
       <c r="R358" s="3"/>
@@ -17808,6 +18661,13 @@
         <v>358</v>
       </c>
       <c r="B359" s="14"/>
+      <c r="F359" t="s">
+        <v>1</v>
+      </c>
+      <c r="G359" s="7"/>
+      <c r="H359" t="s">
+        <v>0</v>
+      </c>
       <c r="O359" s="3"/>
       <c r="P359" s="14"/>
       <c r="R359" s="3"/>
@@ -17833,19 +18693,8 @@
         <v>359</v>
       </c>
       <c r="B360" s="14"/>
-      <c r="E360" t="s">
-        <v>1</v>
-      </c>
-      <c r="F360" s="7"/>
       <c r="G360" t="s">
-        <v>0</v>
-      </c>
-      <c r="K360" t="s">
-        <v>1</v>
-      </c>
-      <c r="L360" s="7"/>
-      <c r="M360" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O360" s="3"/>
       <c r="P360" s="14"/>
@@ -17872,12 +18721,6 @@
         <v>360</v>
       </c>
       <c r="B361" s="14"/>
-      <c r="F361" t="s">
-        <v>22</v>
-      </c>
-      <c r="L361" t="s">
-        <v>22</v>
-      </c>
       <c r="O361" s="3"/>
       <c r="P361" s="14"/>
       <c r="R361" s="3"/>
@@ -17903,6 +18746,9 @@
         <v>361</v>
       </c>
       <c r="B362" s="14"/>
+      <c r="K362" t="s">
+        <v>51</v>
+      </c>
       <c r="O362" s="3"/>
       <c r="P362" s="14"/>
       <c r="R362" s="3"/>
@@ -17953,9 +18799,6 @@
         <v>363</v>
       </c>
       <c r="B364" s="14"/>
-      <c r="I364" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="O364" s="3"/>
       <c r="P364" s="14"/>
       <c r="R364" s="3"/>
@@ -17981,7 +18824,15 @@
         <v>364</v>
       </c>
       <c r="B365" s="14"/>
-      <c r="I365" s="20"/>
+      <c r="F365" s="10"/>
+      <c r="G365" s="10"/>
+      <c r="H365" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I365" s="10"/>
+      <c r="J365" s="10"/>
+      <c r="K365" s="10"/>
+      <c r="L365" s="10"/>
       <c r="O365" s="3"/>
       <c r="P365" s="14"/>
       <c r="R365" s="3"/>
@@ -18007,7 +18858,13 @@
         <v>365</v>
       </c>
       <c r="B366" s="14"/>
-      <c r="I366" s="20"/>
+      <c r="F366" s="10"/>
+      <c r="G366" s="10"/>
+      <c r="H366" s="10"/>
+      <c r="I366" s="10"/>
+      <c r="J366" s="10"/>
+      <c r="K366" s="10"/>
+      <c r="L366" s="10"/>
       <c r="O366" s="3"/>
       <c r="P366" s="14"/>
       <c r="R366" s="3"/>
@@ -18033,7 +18890,17 @@
         <v>366</v>
       </c>
       <c r="B367" s="14"/>
-      <c r="I367" s="20"/>
+      <c r="F367" s="10"/>
+      <c r="G367" s="10"/>
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
+      <c r="J367" t="s">
+        <v>1</v>
+      </c>
+      <c r="K367" s="7"/>
+      <c r="L367" t="s">
+        <v>0</v>
+      </c>
       <c r="O367" s="3"/>
       <c r="P367" s="14"/>
       <c r="R367" s="3"/>
@@ -18059,7 +18926,13 @@
         <v>367</v>
       </c>
       <c r="B368" s="14"/>
-      <c r="I368" s="20"/>
+      <c r="F368" s="10"/>
+      <c r="G368" s="10"/>
+      <c r="H368" s="10"/>
+      <c r="I368" s="10"/>
+      <c r="K368" t="s">
+        <v>20</v>
+      </c>
       <c r="O368" s="3"/>
       <c r="P368" s="14"/>
       <c r="R368" s="3"/>
@@ -18085,7 +18958,15 @@
         <v>368</v>
       </c>
       <c r="B369" s="14"/>
-      <c r="I369" s="20"/>
+      <c r="F369" s="10"/>
+      <c r="G369" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H369" s="10"/>
+      <c r="I369" s="10"/>
+      <c r="J369" s="10"/>
+      <c r="K369" s="10"/>
+      <c r="L369" s="10"/>
       <c r="O369" s="3"/>
       <c r="P369" s="14"/>
       <c r="R369" s="3"/>
@@ -18111,7 +18992,13 @@
         <v>369</v>
       </c>
       <c r="B370" s="14"/>
-      <c r="I370" s="20"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="10"/>
+      <c r="H370" s="10"/>
+      <c r="I370" s="10"/>
+      <c r="J370" s="10"/>
+      <c r="K370" s="10"/>
+      <c r="L370" s="10"/>
       <c r="O370" s="3"/>
       <c r="P370" s="14"/>
       <c r="R370" s="3"/>
@@ -18137,7 +19024,13 @@
         <v>370</v>
       </c>
       <c r="B371" s="14"/>
-      <c r="I371" s="20"/>
+      <c r="F371" s="10"/>
+      <c r="G371" s="10"/>
+      <c r="H371" s="10"/>
+      <c r="I371" s="10"/>
+      <c r="J371" s="10"/>
+      <c r="K371" s="10"/>
+      <c r="L371" s="10"/>
       <c r="O371" s="3"/>
       <c r="P371" s="14"/>
       <c r="R371" s="3"/>
@@ -18163,15 +19056,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="14"/>
-      <c r="F372" t="s">
-        <v>20</v>
-      </c>
-      <c r="I372" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L372" t="s">
-        <v>20</v>
-      </c>
+      <c r="F372" s="10"/>
+      <c r="G372" s="10"/>
+      <c r="H372" s="10"/>
+      <c r="I372" s="10"/>
+      <c r="J372" s="10"/>
+      <c r="K372" s="10"/>
+      <c r="L372" s="10"/>
       <c r="O372" s="3"/>
       <c r="P372" s="14"/>
       <c r="R372" s="3"/>
@@ -18197,9 +19088,15 @@
         <v>372</v>
       </c>
       <c r="B373" s="14"/>
-      <c r="F373" s="20"/>
-      <c r="I373" s="10"/>
-      <c r="L373" s="20"/>
+      <c r="F373" s="10"/>
+      <c r="G373" s="10"/>
+      <c r="H373" s="10"/>
+      <c r="I373" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J373" s="10"/>
+      <c r="K373" s="10"/>
+      <c r="L373" s="10"/>
       <c r="O373" s="3"/>
       <c r="P373" s="14"/>
       <c r="R373" s="3"/>
@@ -18225,9 +19122,13 @@
         <v>373</v>
       </c>
       <c r="B374" s="14"/>
-      <c r="F374" s="20"/>
+      <c r="F374" s="10"/>
+      <c r="G374" s="10"/>
+      <c r="H374" s="10"/>
       <c r="I374" s="10"/>
-      <c r="L374" s="20"/>
+      <c r="J374" s="10"/>
+      <c r="K374" s="10"/>
+      <c r="L374" s="10"/>
       <c r="O374" s="3"/>
       <c r="P374" s="14"/>
       <c r="R374" s="3"/>
@@ -18253,9 +19154,13 @@
         <v>374</v>
       </c>
       <c r="B375" s="14"/>
-      <c r="F375" s="20"/>
+      <c r="F375" s="10"/>
+      <c r="G375" s="10"/>
+      <c r="H375" s="10"/>
       <c r="I375" s="10"/>
-      <c r="L375" s="20"/>
+      <c r="J375" s="10"/>
+      <c r="K375" s="10"/>
+      <c r="L375" s="10"/>
       <c r="O375" s="3"/>
       <c r="P375" s="14"/>
       <c r="R375" s="3"/>
@@ -18281,15 +19186,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="14"/>
-      <c r="D376" t="s">
-        <v>3</v>
-      </c>
-      <c r="F376" s="20"/>
-      <c r="I376" s="10"/>
-      <c r="L376" s="20"/>
-      <c r="N376" t="s">
-        <v>3</v>
-      </c>
+      <c r="F376" s="10"/>
+      <c r="G376" s="10"/>
+      <c r="K376" s="10"/>
+      <c r="L376" s="10"/>
       <c r="O376" s="3"/>
       <c r="P376" s="14"/>
       <c r="R376" s="3"/>
@@ -18315,9 +19215,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="14"/>
-      <c r="F377" s="20"/>
-      <c r="I377" s="10"/>
-      <c r="L377" s="20"/>
+      <c r="F377" s="10"/>
+      <c r="G377" s="10"/>
+      <c r="K377" s="10"/>
+      <c r="L377" s="10"/>
       <c r="O377" s="3"/>
       <c r="P377" s="14"/>
       <c r="R377" s="3"/>
@@ -18343,9 +19244,17 @@
         <v>377</v>
       </c>
       <c r="B378" s="14"/>
-      <c r="F378" s="20"/>
-      <c r="I378" s="10"/>
-      <c r="L378" s="20"/>
+      <c r="F378" s="10"/>
+      <c r="G378" s="10"/>
+      <c r="H378" t="s">
+        <v>1</v>
+      </c>
+      <c r="I378" s="7"/>
+      <c r="J378" t="s">
+        <v>0</v>
+      </c>
+      <c r="K378" s="10"/>
+      <c r="L378" s="10"/>
       <c r="O378" s="3"/>
       <c r="P378" s="14"/>
       <c r="R378" s="3"/>
@@ -18371,9 +19280,13 @@
         <v>378</v>
       </c>
       <c r="B379" s="14"/>
-      <c r="F379" s="20"/>
-      <c r="I379" s="10"/>
-      <c r="L379" s="20"/>
+      <c r="F379" s="10"/>
+      <c r="G379" s="10"/>
+      <c r="I379" t="s">
+        <v>20</v>
+      </c>
+      <c r="K379" s="10"/>
+      <c r="L379" s="10"/>
       <c r="O379" s="3"/>
       <c r="P379" s="14"/>
       <c r="R379" s="3"/>
@@ -18399,15 +19312,13 @@
         <v>379</v>
       </c>
       <c r="B380" s="14"/>
-      <c r="F380" t="s">
-        <v>21</v>
-      </c>
-      <c r="I380" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L380" t="s">
-        <v>21</v>
-      </c>
+      <c r="F380" s="10"/>
+      <c r="G380" s="10"/>
+      <c r="H380" s="10"/>
+      <c r="I380" s="10"/>
+      <c r="J380" s="10"/>
+      <c r="K380" s="10"/>
+      <c r="L380" s="10"/>
       <c r="O380" s="3"/>
       <c r="P380" s="14"/>
       <c r="R380" s="3"/>
@@ -18433,7 +19344,13 @@
         <v>380</v>
       </c>
       <c r="B381" s="14"/>
-      <c r="I381" s="20"/>
+      <c r="F381" s="10"/>
+      <c r="G381" s="10"/>
+      <c r="H381" s="10"/>
+      <c r="I381" s="10"/>
+      <c r="J381" s="10"/>
+      <c r="K381" s="10"/>
+      <c r="L381" s="10"/>
       <c r="O381" s="3"/>
       <c r="P381" s="14"/>
       <c r="R381" s="3"/>
@@ -18459,7 +19376,13 @@
         <v>381</v>
       </c>
       <c r="B382" s="14"/>
-      <c r="I382" s="20"/>
+      <c r="F382" s="10"/>
+      <c r="G382" s="10"/>
+      <c r="H382" s="10"/>
+      <c r="I382" s="10"/>
+      <c r="J382" s="10"/>
+      <c r="K382" s="10"/>
+      <c r="L382" s="10"/>
       <c r="O382" s="3"/>
       <c r="P382" s="14"/>
       <c r="R382" s="3"/>
@@ -18484,8 +19407,20 @@
       <c r="A383" s="16">
         <v>382</v>
       </c>
-      <c r="B383" s="14"/>
-      <c r="I383" s="20"/>
+      <c r="B383" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C383" s="7"/>
+      <c r="D383" t="s">
+        <v>50</v>
+      </c>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10"/>
+      <c r="H383" s="10"/>
+      <c r="I383" s="10"/>
+      <c r="J383" s="10"/>
+      <c r="K383" s="10"/>
+      <c r="L383" s="10"/>
       <c r="O383" s="3"/>
       <c r="P383" s="14"/>
       <c r="R383" s="3"/>
@@ -18511,11 +19446,17 @@
         <v>383</v>
       </c>
       <c r="B384" s="14"/>
-      <c r="I384" s="20"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10"/>
+      <c r="H384" s="10"/>
+      <c r="I384" s="10"/>
+      <c r="J384" s="10"/>
+      <c r="K384" s="10"/>
+      <c r="L384" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O384" s="3"/>
-      <c r="P384" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="P384" s="14"/>
       <c r="R384" s="3"/>
       <c r="S384" s="3"/>
       <c r="T384" s="3"/>
@@ -18538,8 +19479,21 @@
       <c r="A385" s="16">
         <v>384</v>
       </c>
-      <c r="B385" s="14"/>
-      <c r="I385" s="20"/>
+      <c r="B385" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C385" s="7"/>
+      <c r="D385" s="7"/>
+      <c r="E385" t="s">
+        <v>50</v>
+      </c>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10"/>
+      <c r="H385" s="10"/>
+      <c r="I385" s="10"/>
+      <c r="J385" s="10"/>
+      <c r="K385" s="10"/>
+      <c r="L385" s="10"/>
       <c r="O385" s="3"/>
       <c r="P385" s="14"/>
       <c r="R385" s="3"/>
@@ -18565,7 +19519,15 @@
         <v>385</v>
       </c>
       <c r="B386" s="14"/>
-      <c r="I386" s="20"/>
+      <c r="F386" s="10"/>
+      <c r="G386" s="10"/>
+      <c r="H386" s="10"/>
+      <c r="I386" s="10"/>
+      <c r="J386" s="10"/>
+      <c r="K386" s="10"/>
+      <c r="L386" t="s">
+        <v>20</v>
+      </c>
       <c r="O386" s="3"/>
       <c r="P386" s="14"/>
       <c r="R386" s="3"/>
@@ -18590,8 +19552,21 @@
       <c r="A387" s="16">
         <v>386</v>
       </c>
-      <c r="B387" s="14"/>
-      <c r="I387" s="20"/>
+      <c r="B387" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C387" s="7"/>
+      <c r="D387" s="7"/>
+      <c r="E387" s="7"/>
+      <c r="F387" t="s">
+        <v>50</v>
+      </c>
+      <c r="G387" s="10"/>
+      <c r="H387" s="10"/>
+      <c r="I387" s="10"/>
+      <c r="J387" s="10"/>
+      <c r="K387" s="10"/>
+      <c r="L387" s="10"/>
       <c r="O387" s="3"/>
       <c r="P387" s="14"/>
       <c r="R387" s="3"/>
@@ -18617,14 +19592,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="14"/>
-      <c r="E388" t="s">
-        <v>20</v>
-      </c>
-      <c r="I388" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M388" t="s">
-        <v>20</v>
+      <c r="E388" s="10"/>
+      <c r="F388" s="10"/>
+      <c r="G388" s="10"/>
+      <c r="H388" s="10"/>
+      <c r="I388" s="10"/>
+      <c r="J388" s="10"/>
+      <c r="K388" s="10"/>
+      <c r="L388" s="10"/>
+      <c r="M388" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="O388" s="3"/>
       <c r="P388" s="14"/>
@@ -18650,10 +19627,22 @@
       <c r="A389" s="16">
         <v>388</v>
       </c>
-      <c r="B389" s="14"/>
-      <c r="E389" s="20"/>
+      <c r="B389" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C389" s="7"/>
+      <c r="D389" s="7"/>
+      <c r="E389" s="7"/>
+      <c r="F389" s="7"/>
+      <c r="G389" t="s">
+        <v>50</v>
+      </c>
+      <c r="H389" s="10"/>
       <c r="I389" s="10"/>
-      <c r="M389" s="20"/>
+      <c r="J389" s="10"/>
+      <c r="K389" s="10"/>
+      <c r="L389" s="10"/>
+      <c r="M389" s="10"/>
       <c r="O389" s="3"/>
       <c r="P389" s="14"/>
       <c r="R389" s="3"/>
@@ -18679,9 +19668,17 @@
         <v>389</v>
       </c>
       <c r="B390" s="14"/>
-      <c r="E390" s="20"/>
+      <c r="E390" s="10"/>
+      <c r="F390" s="10"/>
+      <c r="G390" s="10"/>
+      <c r="H390" s="10"/>
       <c r="I390" s="10"/>
-      <c r="M390" s="20"/>
+      <c r="J390" s="10"/>
+      <c r="K390" s="10"/>
+      <c r="L390" s="10"/>
+      <c r="M390" t="s">
+        <v>20</v>
+      </c>
       <c r="O390" s="3"/>
       <c r="P390" s="14"/>
       <c r="R390" s="3"/>
@@ -18706,16 +19703,22 @@
       <c r="A391" s="16">
         <v>390</v>
       </c>
-      <c r="B391" s="14"/>
-      <c r="E391" s="20"/>
-      <c r="G391" t="s">
-        <v>22</v>
+      <c r="B391" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="7"/>
+      <c r="F391" s="7"/>
+      <c r="G391" s="7"/>
+      <c r="H391" t="s">
+        <v>50</v>
       </c>
       <c r="I391" s="10"/>
-      <c r="K391" t="s">
-        <v>22</v>
-      </c>
-      <c r="M391" s="20"/>
+      <c r="J391" s="10"/>
+      <c r="K391" s="10"/>
+      <c r="L391" s="10"/>
+      <c r="M391" s="10"/>
       <c r="P391" s="14"/>
       <c r="R391" s="3"/>
       <c r="S391" s="3"/>
@@ -18740,9 +19743,18 @@
         <v>391</v>
       </c>
       <c r="B392" s="14"/>
-      <c r="E392" s="20"/>
+      <c r="E392" s="10"/>
+      <c r="F392" s="10"/>
+      <c r="G392" s="10"/>
+      <c r="H392" s="10"/>
       <c r="I392" s="10"/>
-      <c r="M392" s="20"/>
+      <c r="J392" s="10"/>
+      <c r="K392" s="10"/>
+      <c r="L392" s="10"/>
+      <c r="M392" s="10"/>
+      <c r="N392" t="s">
+        <v>51</v>
+      </c>
       <c r="O392" s="3"/>
       <c r="P392" s="14"/>
       <c r="R392" s="3"/>
@@ -18767,10 +19779,22 @@
       <c r="A393" s="16">
         <v>392</v>
       </c>
-      <c r="B393" s="14"/>
-      <c r="E393" s="20"/>
-      <c r="I393" s="10"/>
-      <c r="M393" s="20"/>
+      <c r="B393" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C393" s="7"/>
+      <c r="D393" s="7"/>
+      <c r="E393" s="7"/>
+      <c r="F393" s="7"/>
+      <c r="G393" s="7"/>
+      <c r="H393" s="7"/>
+      <c r="I393" t="s">
+        <v>50</v>
+      </c>
+      <c r="J393" s="10"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="10"/>
       <c r="O393" s="3"/>
       <c r="P393" s="14"/>
       <c r="R393" s="3"/>
@@ -18796,9 +19820,18 @@
         <v>393</v>
       </c>
       <c r="B394" s="14"/>
-      <c r="E394" s="20"/>
+      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10"/>
+      <c r="H394" s="10"/>
       <c r="I394" s="10"/>
-      <c r="M394" s="20"/>
+      <c r="J394" s="10"/>
+      <c r="K394" s="10"/>
+      <c r="L394" s="10"/>
+      <c r="M394" s="10"/>
+      <c r="N394" t="s">
+        <v>20</v>
+      </c>
       <c r="O394" s="3"/>
       <c r="P394" s="14"/>
       <c r="R394" s="3"/>
@@ -18823,10 +19856,22 @@
       <c r="A395" s="16">
         <v>394</v>
       </c>
-      <c r="B395" s="14"/>
-      <c r="E395" s="20"/>
-      <c r="I395" s="10"/>
-      <c r="M395" s="20"/>
+      <c r="B395" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C395" s="7"/>
+      <c r="D395" s="7"/>
+      <c r="E395" s="7"/>
+      <c r="F395" s="7"/>
+      <c r="G395" s="7"/>
+      <c r="H395" s="7"/>
+      <c r="I395" s="7"/>
+      <c r="J395" t="s">
+        <v>50</v>
+      </c>
+      <c r="K395" s="10"/>
+      <c r="L395" s="10"/>
+      <c r="M395" s="10"/>
       <c r="P395" s="14"/>
       <c r="R395" s="3"/>
       <c r="S395" s="3"/>
@@ -18851,15 +19896,15 @@
         <v>395</v>
       </c>
       <c r="B396" s="14"/>
-      <c r="E396" t="s">
-        <v>21</v>
-      </c>
-      <c r="I396" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M396" t="s">
-        <v>21</v>
-      </c>
+      <c r="E396" s="10"/>
+      <c r="F396" s="10"/>
+      <c r="G396" s="10"/>
+      <c r="H396" s="10"/>
+      <c r="I396" s="10"/>
+      <c r="J396" s="10"/>
+      <c r="K396" s="10"/>
+      <c r="L396" s="10"/>
+      <c r="M396" s="10"/>
       <c r="O396" s="3"/>
       <c r="P396" s="14"/>
       <c r="R396" s="3"/>
@@ -18884,8 +19929,22 @@
       <c r="A397" s="16">
         <v>396</v>
       </c>
-      <c r="B397" s="14"/>
-      <c r="I397" s="20"/>
+      <c r="B397" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C397" s="7"/>
+      <c r="D397" s="7"/>
+      <c r="E397" s="7"/>
+      <c r="F397" s="7"/>
+      <c r="G397" s="7"/>
+      <c r="H397" s="7"/>
+      <c r="I397" s="7"/>
+      <c r="J397" t="s">
+        <v>50</v>
+      </c>
+      <c r="K397" s="10"/>
+      <c r="L397" s="10"/>
+      <c r="M397" s="10"/>
       <c r="O397" s="3"/>
       <c r="P397" s="14"/>
       <c r="R397" s="3"/>
@@ -18911,7 +19970,15 @@
         <v>397</v>
       </c>
       <c r="B398" s="14"/>
-      <c r="I398" s="20"/>
+      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10"/>
+      <c r="H398" s="10"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="10"/>
+      <c r="K398" s="10"/>
+      <c r="L398" s="10"/>
+      <c r="M398" s="10"/>
       <c r="O398" s="3"/>
       <c r="P398" s="14"/>
       <c r="R398" s="3"/>
@@ -18936,8 +20003,25 @@
       <c r="A399" s="16">
         <v>398</v>
       </c>
-      <c r="B399" s="14"/>
-      <c r="I399" s="20"/>
+      <c r="B399" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C399" s="7"/>
+      <c r="D399" s="7"/>
+      <c r="E399" s="7"/>
+      <c r="F399" s="7"/>
+      <c r="G399" s="7"/>
+      <c r="H399" s="7"/>
+      <c r="I399" s="7"/>
+      <c r="J399" t="s">
+        <v>50</v>
+      </c>
+      <c r="K399" s="10"/>
+      <c r="L399" s="10"/>
+      <c r="M399" s="10"/>
+      <c r="N399" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O399" s="3"/>
       <c r="P399" s="14"/>
       <c r="R399" s="3"/>
@@ -18963,7 +20047,14 @@
         <v>399</v>
       </c>
       <c r="B400" s="14"/>
-      <c r="I400" s="20"/>
+      <c r="E400" s="10"/>
+      <c r="F400" s="10"/>
+      <c r="G400" s="10"/>
+      <c r="H400" s="10"/>
+      <c r="I400" s="10"/>
+      <c r="J400" s="10"/>
+      <c r="K400" s="10"/>
+      <c r="L400" s="10"/>
       <c r="O400" s="3"/>
       <c r="P400" s="14"/>
       <c r="R400" s="3"/>
@@ -18988,8 +20079,22 @@
       <c r="A401" s="16">
         <v>400</v>
       </c>
-      <c r="B401" s="14"/>
-      <c r="I401" s="20"/>
+      <c r="B401" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C401" s="7"/>
+      <c r="D401" s="7"/>
+      <c r="E401" s="7"/>
+      <c r="F401" s="7"/>
+      <c r="G401" s="7"/>
+      <c r="H401" s="7"/>
+      <c r="I401" s="7"/>
+      <c r="J401" t="s">
+        <v>50</v>
+      </c>
+      <c r="K401" s="10"/>
+      <c r="L401" s="10"/>
+      <c r="M401" s="10"/>
       <c r="O401" s="3"/>
       <c r="P401" s="14"/>
       <c r="R401" s="3"/>
@@ -19015,7 +20120,17 @@
         <v>401</v>
       </c>
       <c r="B402" s="14"/>
-      <c r="I402" s="20"/>
+      <c r="E402" s="10"/>
+      <c r="F402" s="10"/>
+      <c r="G402" s="10"/>
+      <c r="H402" s="10"/>
+      <c r="I402" s="10"/>
+      <c r="J402" s="10"/>
+      <c r="K402" s="10"/>
+      <c r="L402" s="10"/>
+      <c r="M402" t="s">
+        <v>20</v>
+      </c>
       <c r="O402" s="3"/>
       <c r="P402" s="14"/>
       <c r="R402" s="3"/>
@@ -19040,8 +20155,24 @@
       <c r="A403" s="16">
         <v>402</v>
       </c>
-      <c r="B403" s="14"/>
-      <c r="I403" s="20"/>
+      <c r="B403" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C403" s="7"/>
+      <c r="D403" s="7"/>
+      <c r="E403" s="7"/>
+      <c r="F403" s="7"/>
+      <c r="G403" s="7"/>
+      <c r="H403" s="7"/>
+      <c r="I403" t="s">
+        <v>50</v>
+      </c>
+      <c r="J403" s="10"/>
+      <c r="K403" s="10"/>
+      <c r="L403" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M403" s="10"/>
       <c r="O403" s="3"/>
       <c r="P403" s="14"/>
       <c r="R403" s="3"/>
@@ -19067,13 +20198,17 @@
         <v>403</v>
       </c>
       <c r="B404" s="14"/>
-      <c r="I404" t="s">
-        <v>21</v>
-      </c>
+      <c r="E404" s="10"/>
+      <c r="F404" s="10"/>
+      <c r="G404" s="10"/>
+      <c r="H404" s="10"/>
+      <c r="I404" s="10"/>
+      <c r="J404" s="10"/>
+      <c r="K404" s="10"/>
+      <c r="L404" s="10"/>
+      <c r="M404" s="10"/>
       <c r="O404" s="3"/>
-      <c r="P404" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="P404" s="14"/>
       <c r="R404" s="3"/>
       <c r="S404" s="3"/>
       <c r="T404" s="3"/>
@@ -19096,7 +20231,17 @@
       <c r="A405" s="16">
         <v>404</v>
       </c>
-      <c r="B405" s="14"/>
+      <c r="B405" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C405" s="7"/>
+      <c r="D405" s="7"/>
+      <c r="E405" s="7"/>
+      <c r="F405" s="7"/>
+      <c r="G405" s="7"/>
+      <c r="H405" t="s">
+        <v>50</v>
+      </c>
       <c r="O405" s="3"/>
       <c r="P405" s="14"/>
       <c r="R405" s="3"/>
@@ -19122,7 +20267,21 @@
         <v>405</v>
       </c>
       <c r="B406" s="14"/>
-      <c r="O406" s="3"/>
+      <c r="C406" s="10"/>
+      <c r="D406" s="10"/>
+      <c r="E406" s="10"/>
+      <c r="F406" s="10"/>
+      <c r="G406" s="10"/>
+      <c r="H406" s="10"/>
+      <c r="I406" s="10"/>
+      <c r="J406" s="10"/>
+      <c r="K406" t="s">
+        <v>20</v>
+      </c>
+      <c r="L406" s="10"/>
+      <c r="M406" s="10"/>
+      <c r="N406" s="10"/>
+      <c r="O406" s="6"/>
       <c r="P406" s="14"/>
       <c r="R406" s="3"/>
       <c r="S406" s="3"/>
@@ -19147,11 +20306,29 @@
         <v>406</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O407" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+      <c r="E407" s="7"/>
+      <c r="F407" s="7"/>
+      <c r="G407" t="s">
+        <v>50</v>
+      </c>
+      <c r="H407" s="10"/>
+      <c r="I407" s="10"/>
+      <c r="J407" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K407" s="10"/>
+      <c r="L407" s="10"/>
+      <c r="M407" s="10"/>
+      <c r="N407" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O407" s="27"/>
       <c r="P407" s="14" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="R407" s="3"/>
       <c r="S407" s="3"/>
@@ -19175,14 +20352,21 @@
       <c r="A408" s="16">
         <v>407</v>
       </c>
-      <c r="B408" s="25"/>
-      <c r="C408" t="s">
-        <v>20</v>
-      </c>
-      <c r="O408" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P408" s="25"/>
+      <c r="B408" s="14"/>
+      <c r="C408" s="10"/>
+      <c r="D408" s="10"/>
+      <c r="E408" s="10"/>
+      <c r="F408" s="10"/>
+      <c r="G408" s="10"/>
+      <c r="H408" s="10"/>
+      <c r="I408" s="10"/>
+      <c r="J408" s="10"/>
+      <c r="K408" s="10"/>
+      <c r="L408" s="10"/>
+      <c r="M408" s="10"/>
+      <c r="N408" s="10"/>
+      <c r="O408" s="6"/>
+      <c r="P408" s="14"/>
       <c r="R408" s="3"/>
       <c r="S408" s="3"/>
       <c r="T408" s="3"/>
@@ -19205,16 +20389,29 @@
       <c r="A409" s="16">
         <v>408</v>
       </c>
-      <c r="B409" s="25"/>
-      <c r="C409" s="20"/>
-      <c r="D409" t="s">
-        <v>20</v>
-      </c>
-      <c r="N409" t="s">
-        <v>20</v>
-      </c>
-      <c r="O409" s="19"/>
-      <c r="P409" s="25"/>
+      <c r="B409" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C409" s="7"/>
+      <c r="D409" s="7"/>
+      <c r="E409" s="7"/>
+      <c r="F409" t="s">
+        <v>50</v>
+      </c>
+      <c r="G409" s="10"/>
+      <c r="H409" s="10"/>
+      <c r="I409" s="10"/>
+      <c r="J409" s="10"/>
+      <c r="K409" s="10"/>
+      <c r="L409" s="10"/>
+      <c r="M409" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N409" s="28"/>
+      <c r="O409" s="27"/>
+      <c r="P409" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R409" s="3"/>
       <c r="S409" s="3"/>
       <c r="T409" s="3"/>
@@ -19237,18 +20434,23 @@
       <c r="A410" s="16">
         <v>409</v>
       </c>
-      <c r="B410" s="25"/>
-      <c r="C410" s="20"/>
-      <c r="D410" s="20"/>
-      <c r="E410" t="s">
+      <c r="B410" s="14"/>
+      <c r="C410" s="10"/>
+      <c r="D410" s="10"/>
+      <c r="E410" s="10"/>
+      <c r="F410" s="10"/>
+      <c r="G410" s="10"/>
+      <c r="H410" s="10"/>
+      <c r="I410" t="s">
         <v>20</v>
       </c>
-      <c r="M410" t="s">
-        <v>20</v>
-      </c>
-      <c r="N410" s="20"/>
-      <c r="O410" s="19"/>
-      <c r="P410" s="25"/>
+      <c r="J410" s="10"/>
+      <c r="K410" s="10"/>
+      <c r="L410" s="10"/>
+      <c r="M410" s="10"/>
+      <c r="N410" s="10"/>
+      <c r="O410" s="6"/>
+      <c r="P410" s="14"/>
       <c r="R410" s="3"/>
       <c r="S410" s="3"/>
       <c r="T410" s="3"/>
@@ -19271,20 +20473,25 @@
       <c r="A411" s="16">
         <v>410</v>
       </c>
-      <c r="B411" s="25"/>
-      <c r="C411" s="20"/>
-      <c r="D411" s="20"/>
-      <c r="E411" s="20"/>
-      <c r="F411" t="s">
-        <v>20</v>
-      </c>
-      <c r="L411" t="s">
-        <v>20</v>
-      </c>
-      <c r="M411" s="20"/>
-      <c r="N411" s="20"/>
-      <c r="O411" s="19"/>
-      <c r="P411" s="25"/>
+      <c r="B411" s="14"/>
+      <c r="C411" s="10"/>
+      <c r="D411" s="10"/>
+      <c r="E411" s="10"/>
+      <c r="F411" s="10"/>
+      <c r="G411" s="10"/>
+      <c r="H411" s="10"/>
+      <c r="I411" s="10"/>
+      <c r="J411" s="10"/>
+      <c r="K411" s="10"/>
+      <c r="L411" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M411" s="28"/>
+      <c r="N411" s="28"/>
+      <c r="O411" s="27"/>
+      <c r="P411" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R411" s="3"/>
       <c r="S411" s="3"/>
       <c r="T411" s="3"/>
@@ -19307,20 +20514,21 @@
       <c r="A412" s="16">
         <v>411</v>
       </c>
-      <c r="B412" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C412" s="20"/>
-      <c r="D412" s="20"/>
-      <c r="E412" s="20"/>
-      <c r="F412" s="20"/>
-      <c r="L412" s="20"/>
-      <c r="M412" s="20"/>
-      <c r="N412" s="20"/>
-      <c r="O412" s="19"/>
-      <c r="P412" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="B412" s="14"/>
+      <c r="C412" s="10"/>
+      <c r="D412" s="10"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+      <c r="H412" s="10"/>
+      <c r="I412" s="10"/>
+      <c r="J412" s="10"/>
+      <c r="K412" s="10"/>
+      <c r="L412" s="10"/>
+      <c r="M412" s="10"/>
+      <c r="N412" s="10"/>
+      <c r="O412" s="6"/>
+      <c r="P412" s="14"/>
       <c r="R412" s="3"/>
       <c r="S412" s="3"/>
       <c r="T412" s="3"/>
@@ -19344,19 +20552,24 @@
         <v>412</v>
       </c>
       <c r="B413" s="14"/>
-      <c r="C413" t="s">
-        <v>21</v>
-      </c>
-      <c r="D413" s="20"/>
-      <c r="E413" s="20"/>
-      <c r="F413" s="20"/>
-      <c r="L413" s="20"/>
-      <c r="M413" s="20"/>
-      <c r="N413" s="20"/>
-      <c r="O413" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P413" s="14"/>
+      <c r="C413" s="10"/>
+      <c r="D413" s="10"/>
+      <c r="E413" s="10"/>
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
+      <c r="H413" s="10"/>
+      <c r="I413" s="10"/>
+      <c r="J413" s="10"/>
+      <c r="K413" s="10"/>
+      <c r="L413" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M413" s="28"/>
+      <c r="N413" s="28"/>
+      <c r="O413" s="27"/>
+      <c r="P413" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R413" s="3"/>
       <c r="S413" s="3"/>
       <c r="T413" s="3"/>
@@ -19380,17 +20593,19 @@
         <v>413</v>
       </c>
       <c r="B414" s="14"/>
-      <c r="D414" t="s">
-        <v>21</v>
-      </c>
-      <c r="E414" s="20"/>
-      <c r="F414" s="20"/>
-      <c r="L414" s="20"/>
-      <c r="M414" s="20"/>
-      <c r="N414" t="s">
-        <v>21</v>
-      </c>
-      <c r="O414" s="3"/>
+      <c r="C414" s="10"/>
+      <c r="D414" s="10"/>
+      <c r="E414" s="10"/>
+      <c r="F414" s="10"/>
+      <c r="G414" s="10"/>
+      <c r="H414" s="10"/>
+      <c r="I414" s="10"/>
+      <c r="J414" s="10"/>
+      <c r="K414" s="10"/>
+      <c r="L414" s="10"/>
+      <c r="M414" s="10"/>
+      <c r="N414" s="10"/>
+      <c r="O414" s="6"/>
       <c r="P414" s="14"/>
       <c r="R414" s="3"/>
       <c r="S414" s="3"/>
@@ -19415,16 +20630,24 @@
         <v>414</v>
       </c>
       <c r="B415" s="14"/>
-      <c r="E415" t="s">
-        <v>21</v>
-      </c>
-      <c r="F415" s="20"/>
-      <c r="L415" s="20"/>
-      <c r="M415" t="s">
-        <v>21</v>
-      </c>
-      <c r="O415" s="3"/>
-      <c r="P415" s="14"/>
+      <c r="C415" s="10"/>
+      <c r="D415" s="10"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
+      <c r="G415" s="10"/>
+      <c r="H415" s="10"/>
+      <c r="I415" s="10"/>
+      <c r="J415" s="10"/>
+      <c r="K415" s="10"/>
+      <c r="L415" s="10"/>
+      <c r="M415" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N415" s="28"/>
+      <c r="O415" s="27"/>
+      <c r="P415" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="R415" s="3"/>
       <c r="S415" s="3"/>
       <c r="T415" s="3"/>
@@ -19448,13 +20671,19 @@
         <v>415</v>
       </c>
       <c r="B416" s="14"/>
-      <c r="F416" t="s">
-        <v>21</v>
-      </c>
-      <c r="L416" t="s">
-        <v>21</v>
-      </c>
-      <c r="O416" s="3"/>
+      <c r="C416" s="10"/>
+      <c r="D416" s="10"/>
+      <c r="E416" s="10"/>
+      <c r="F416" s="10"/>
+      <c r="G416" s="10"/>
+      <c r="H416" s="10"/>
+      <c r="I416" s="10"/>
+      <c r="J416" s="10"/>
+      <c r="K416" s="10"/>
+      <c r="L416" s="10"/>
+      <c r="M416" s="10"/>
+      <c r="N416" s="10"/>
+      <c r="O416" s="6"/>
       <c r="P416" s="14"/>
       <c r="R416" s="3"/>
       <c r="S416" s="3"/>
@@ -19479,10 +20708,19 @@
         <v>416</v>
       </c>
       <c r="B417" s="14"/>
-      <c r="I417" t="s">
-        <v>2</v>
-      </c>
-      <c r="O417" s="3"/>
+      <c r="C417" s="10"/>
+      <c r="D417" s="10"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="10"/>
+      <c r="G417" s="10"/>
+      <c r="H417" s="10"/>
+      <c r="I417" s="10"/>
+      <c r="J417" s="10"/>
+      <c r="K417" s="10"/>
+      <c r="L417" s="10"/>
+      <c r="M417" s="10"/>
+      <c r="N417" s="10"/>
+      <c r="O417" s="6"/>
       <c r="P417" s="14"/>
       <c r="R417" s="3"/>
       <c r="S417" s="3"/>
@@ -19582,23 +20820,23 @@
         <v>420</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C421" s="26"/>
-      <c r="D421" s="26"/>
-      <c r="E421" s="26"/>
-      <c r="F421" s="26"/>
-      <c r="G421" s="26"/>
-      <c r="H421" s="26"/>
-      <c r="I421" s="26"/>
-      <c r="J421" s="26"/>
-      <c r="K421" s="26"/>
-      <c r="L421" s="26"/>
-      <c r="M421" s="26"/>
-      <c r="N421" s="26"/>
-      <c r="O421" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="C421" s="24"/>
+      <c r="D421" s="24"/>
+      <c r="E421" s="24"/>
+      <c r="F421" s="24"/>
+      <c r="G421" s="24"/>
+      <c r="H421" s="24"/>
+      <c r="I421" s="24"/>
+      <c r="J421" s="24"/>
+      <c r="K421" s="24"/>
+      <c r="L421" s="24"/>
+      <c r="M421" s="24"/>
+      <c r="N421" s="24"/>
+      <c r="O421" s="25"/>
       <c r="P421" s="14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="R421" s="3"/>
       <c r="S421" s="3"/>
@@ -20028,7 +21266,7 @@
       <c r="P469" s="14"/>
     </row>
     <row r="470" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A470" s="28">
+      <c r="A470" s="26">
         <v>469</v>
       </c>
       <c r="B470" s="14"/>
